--- a/data/nakazeni-vyleceni-umrti-testy.xlsx
+++ b/data/nakazeni-vyleceni-umrti-testy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ro\Documents\GitHub\model-m\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF123D0C-E23A-47CA-AE4C-9A3089D13937}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E17B83A-BDBE-4B97-A404-BE500583E197}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="18240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5444,13 +5444,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>790575</xdr:colOff>
+      <xdr:colOff>790574</xdr:colOff>
       <xdr:row>109</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
       <xdr:row>124</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
@@ -7725,8 +7725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L81" sqref="L81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7974,7 +7974,7 @@
         <v>5.2461492439782945E-3</v>
       </c>
       <c r="M21">
-        <f>B21-C21-D21</f>
+        <f t="shared" ref="M21:M52" si="0">B21-C21-D21</f>
         <v>0</v>
       </c>
       <c r="N21">
@@ -7999,39 +7999,39 @@
         <v>28</v>
       </c>
       <c r="F22">
-        <f>E22-E21</f>
+        <f t="shared" ref="F22:F53" si="1">E22-E21</f>
         <v>8</v>
       </c>
       <c r="G22">
-        <f t="shared" ref="G22:G85" si="0">(F22+F21+F20)/3</f>
+        <f t="shared" ref="G22:G85" si="2">(F22+F21+F20)/3</f>
         <v>9.3333333333333339</v>
       </c>
       <c r="H22">
-        <f t="shared" ref="H22:H85" si="1">(F22+F21+F20+F19+F18)/5</f>
+        <f t="shared" ref="H22:H85" si="3">(F22+F21+F20+F19+F18)/5</f>
         <v>5.6</v>
       </c>
       <c r="I22">
-        <f t="shared" ref="I22:I85" si="2">(F22+F21+F20+F19+F18+F17+F16+F15+F14+F13)/10</f>
+        <f t="shared" ref="I22:I85" si="4">(F22+F21+F20+F19+F18+F17+F16+F15+F14+F13)/10</f>
         <v>2.8</v>
       </c>
       <c r="J22">
-        <f t="shared" ref="J22:J85" si="3">AVERAGE(F3:F22)</f>
+        <f t="shared" ref="J22:J85" si="5">AVERAGE(F3:F22)</f>
         <v>1.4</v>
       </c>
       <c r="K22" s="2">
-        <f t="shared" ref="K22:K85" si="4">F22*56102/10693939</f>
+        <f t="shared" ref="K22:K85" si="6">F22*56102/10693939</f>
         <v>4.1969193951826356E-2</v>
       </c>
       <c r="L22" s="2">
-        <f t="shared" ref="L22:L85" si="5">AVERAGE(K3:K22)</f>
+        <f t="shared" ref="L22:L85" si="7">AVERAGE(K3:K22)</f>
         <v>7.3446089415696121E-3</v>
       </c>
       <c r="M22">
-        <f>B22-C22-D22</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N22">
-        <f t="shared" ref="N22:N85" si="6">M22*56102/10693939</f>
+        <f t="shared" ref="N22:N85" si="8">M22*56102/10693939</f>
         <v>0</v>
       </c>
     </row>
@@ -8052,39 +8052,39 @@
         <v>33</v>
       </c>
       <c r="F23">
-        <f>E23-E22</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="G23">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="3"/>
+        <v>6.6</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="4"/>
+        <v>3.3</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="5"/>
+        <v>1.65</v>
+      </c>
+      <c r="K23" s="2">
+        <f t="shared" si="6"/>
+        <v>2.6230746219891472E-2</v>
+      </c>
+      <c r="L23" s="2">
+        <f t="shared" si="7"/>
+        <v>8.6561462525641848E-3</v>
+      </c>
+      <c r="M23">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="1"/>
-        <v>6.6</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="2"/>
-        <v>3.3</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="3"/>
-        <v>1.65</v>
-      </c>
-      <c r="K23" s="2">
-        <f t="shared" si="4"/>
-        <v>2.6230746219891472E-2</v>
-      </c>
-      <c r="L23" s="2">
-        <f t="shared" si="5"/>
-        <v>8.6561462525641848E-3</v>
-      </c>
-      <c r="M23">
-        <f>B23-C23-D23</f>
         <v>0</v>
       </c>
       <c r="N23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O23">
@@ -8109,43 +8109,43 @@
         <v>34</v>
       </c>
       <c r="F24">
-        <f>E24-E23</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G24">
+        <f t="shared" si="2"/>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="3"/>
+        <v>6.8</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="4"/>
+        <v>3.4</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="5"/>
+        <v>1.7</v>
+      </c>
+      <c r="K24" s="2">
+        <f t="shared" si="6"/>
+        <v>5.2461492439782945E-3</v>
+      </c>
+      <c r="L24" s="2">
+        <f t="shared" si="7"/>
+        <v>8.9184537147630992E-3</v>
+      </c>
+      <c r="M24">
         <f t="shared" si="0"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="1"/>
-        <v>6.8</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="2"/>
-        <v>3.4</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="3"/>
-        <v>1.7</v>
-      </c>
-      <c r="K24" s="2">
-        <f t="shared" si="4"/>
-        <v>5.2461492439782945E-3</v>
-      </c>
-      <c r="L24" s="2">
-        <f t="shared" si="5"/>
-        <v>8.9184537147630992E-3</v>
-      </c>
-      <c r="M24">
-        <f>B24-C24-D24</f>
         <v>0</v>
       </c>
       <c r="N24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O24">
-        <f t="shared" ref="O24:O87" si="7">(F24+F23+F22)/3</f>
+        <f t="shared" ref="O24:O87" si="9">(F24+F23+F22)/3</f>
         <v>4.666666666666667</v>
       </c>
     </row>
@@ -8166,43 +8166,43 @@
         <v>37</v>
       </c>
       <c r="F25">
-        <f>E25-E24</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G25">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="3"/>
+        <v>7.4</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="4"/>
+        <v>3.7</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="5"/>
+        <v>1.85</v>
+      </c>
+      <c r="K25" s="2">
+        <f t="shared" si="6"/>
+        <v>1.5738447731934883E-2</v>
+      </c>
+      <c r="L25" s="2">
+        <f t="shared" si="7"/>
+        <v>9.7053761013598441E-3</v>
+      </c>
+      <c r="M25">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="1"/>
-        <v>7.4</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="2"/>
-        <v>3.7</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="3"/>
-        <v>1.85</v>
-      </c>
-      <c r="K25" s="2">
-        <f t="shared" si="4"/>
-        <v>1.5738447731934883E-2</v>
-      </c>
-      <c r="L25" s="2">
-        <f t="shared" si="5"/>
-        <v>9.7053761013598441E-3</v>
-      </c>
-      <c r="M25">
-        <f>B25-C25-D25</f>
         <v>0</v>
       </c>
       <c r="N25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
@@ -8223,43 +8223,43 @@
         <v>38</v>
       </c>
       <c r="F26">
-        <f>E26-E25</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G26">
+        <f t="shared" si="2"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="3"/>
+        <v>3.6</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="4"/>
+        <v>3.8</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="5"/>
+        <v>1.9</v>
+      </c>
+      <c r="K26" s="2">
+        <f t="shared" si="6"/>
+        <v>5.2461492439782945E-3</v>
+      </c>
+      <c r="L26" s="2">
+        <f t="shared" si="7"/>
+        <v>9.9676835635587584E-3</v>
+      </c>
+      <c r="M26">
         <f t="shared" si="0"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="1"/>
-        <v>3.6</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="2"/>
-        <v>3.8</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="3"/>
-        <v>1.9</v>
-      </c>
-      <c r="K26" s="2">
-        <f t="shared" si="4"/>
-        <v>5.2461492439782945E-3</v>
-      </c>
-      <c r="L26" s="2">
-        <f t="shared" si="5"/>
-        <v>9.9676835635587584E-3</v>
-      </c>
-      <c r="M26">
-        <f>B26-C26-D26</f>
         <v>0</v>
       </c>
       <c r="N26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.6666666666666667</v>
       </c>
     </row>
@@ -8280,43 +8280,43 @@
         <v>43</v>
       </c>
       <c r="F27">
-        <f>E27-E26</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="G27">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="4"/>
+        <v>4.3</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="5"/>
+        <v>2.15</v>
+      </c>
+      <c r="K27" s="2">
+        <f t="shared" si="6"/>
+        <v>2.6230746219891472E-2</v>
+      </c>
+      <c r="L27" s="2">
+        <f t="shared" si="7"/>
+        <v>1.1279220874553332E-2</v>
+      </c>
+      <c r="M27">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="2"/>
-        <v>4.3</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="3"/>
-        <v>2.15</v>
-      </c>
-      <c r="K27" s="2">
-        <f t="shared" si="4"/>
-        <v>2.6230746219891472E-2</v>
-      </c>
-      <c r="L27" s="2">
-        <f t="shared" si="5"/>
-        <v>1.1279220874553332E-2</v>
-      </c>
-      <c r="M27">
-        <f>B27-C27-D27</f>
         <v>0</v>
       </c>
       <c r="N27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
@@ -8337,43 +8337,43 @@
         <v>48</v>
       </c>
       <c r="F28">
-        <f>E28-E27</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="G28">
+        <f t="shared" si="2"/>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="4"/>
+        <v>4.8</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="5"/>
+        <v>2.4</v>
+      </c>
+      <c r="K28" s="2">
+        <f t="shared" si="6"/>
+        <v>2.6230746219891472E-2</v>
+      </c>
+      <c r="L28" s="2">
+        <f t="shared" si="7"/>
+        <v>1.2590758185547907E-2</v>
+      </c>
+      <c r="M28">
         <f t="shared" si="0"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="I28">
-        <f t="shared" si="2"/>
-        <v>4.8</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="3"/>
-        <v>2.4</v>
-      </c>
-      <c r="K28" s="2">
-        <f t="shared" si="4"/>
-        <v>2.6230746219891472E-2</v>
-      </c>
-      <c r="L28" s="2">
-        <f t="shared" si="5"/>
-        <v>1.2590758185547907E-2</v>
-      </c>
-      <c r="M28">
-        <f>B28-C28-D28</f>
         <v>0</v>
       </c>
       <c r="N28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.6666666666666665</v>
       </c>
     </row>
@@ -8394,43 +8394,43 @@
         <v>53</v>
       </c>
       <c r="F29">
-        <f>E29-E28</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="G29">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="3"/>
+        <v>3.8</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="4"/>
+        <v>5.3</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="5"/>
+        <v>2.65</v>
+      </c>
+      <c r="K29" s="2">
+        <f t="shared" si="6"/>
+        <v>2.6230746219891472E-2</v>
+      </c>
+      <c r="L29" s="2">
+        <f t="shared" si="7"/>
+        <v>1.3902295496542479E-2</v>
+      </c>
+      <c r="M29">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="1"/>
-        <v>3.8</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="2"/>
-        <v>5.3</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="3"/>
-        <v>2.65</v>
-      </c>
-      <c r="K29" s="2">
-        <f t="shared" si="4"/>
-        <v>2.6230746219891472E-2</v>
-      </c>
-      <c r="L29" s="2">
-        <f t="shared" si="5"/>
-        <v>1.3902295496542479E-2</v>
-      </c>
-      <c r="M29">
-        <f>B29-C29-D29</f>
         <v>0</v>
       </c>
       <c r="N29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
     </row>
@@ -8451,43 +8451,43 @@
         <v>53</v>
       </c>
       <c r="F30">
-        <f>E30-E29</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G30">
+        <f t="shared" si="2"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="3"/>
+        <v>3.2</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="4"/>
+        <v>5.3</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="5"/>
+        <v>2.65</v>
+      </c>
+      <c r="K30" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="2">
+        <f t="shared" si="7"/>
+        <v>1.3902295496542479E-2</v>
+      </c>
+      <c r="M30">
         <f t="shared" si="0"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="1"/>
-        <v>3.2</v>
-      </c>
-      <c r="I30">
-        <f t="shared" si="2"/>
-        <v>5.3</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="3"/>
-        <v>2.65</v>
-      </c>
-      <c r="K30" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="2">
-        <f t="shared" si="5"/>
-        <v>1.3902295496542479E-2</v>
-      </c>
-      <c r="M30">
-        <f>B30-C30-D30</f>
         <v>0</v>
       </c>
       <c r="N30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.3333333333333335</v>
       </c>
     </row>
@@ -8508,43 +8508,43 @@
         <v>56</v>
       </c>
       <c r="F31">
-        <f>E31-E30</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G31">
+        <f t="shared" si="2"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="3"/>
+        <v>3.6</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="4"/>
+        <v>3.6</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="5"/>
+        <v>2.8</v>
+      </c>
+      <c r="K31" s="2">
+        <f t="shared" si="6"/>
+        <v>1.5738447731934883E-2</v>
+      </c>
+      <c r="L31" s="2">
+        <f t="shared" si="7"/>
+        <v>1.4689217883139224E-2</v>
+      </c>
+      <c r="M31">
         <f t="shared" si="0"/>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="1"/>
-        <v>3.6</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="2"/>
-        <v>3.6</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="3"/>
-        <v>2.8</v>
-      </c>
-      <c r="K31" s="2">
-        <f t="shared" si="4"/>
-        <v>1.5738447731934883E-2</v>
-      </c>
-      <c r="L31" s="2">
-        <f t="shared" si="5"/>
-        <v>1.4689217883139224E-2</v>
-      </c>
-      <c r="M31">
-        <f>B31-C31-D31</f>
         <v>0</v>
       </c>
       <c r="N31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.6666666666666665</v>
       </c>
     </row>
@@ -8565,43 +8565,43 @@
         <v>62</v>
       </c>
       <c r="F32">
-        <f>E32-E31</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="G32">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="3"/>
+        <v>3.8</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="4"/>
+        <v>3.4</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="5"/>
+        <v>3.1</v>
+      </c>
+      <c r="K32" s="2">
+        <f t="shared" si="6"/>
+        <v>3.1476895463869767E-2</v>
+      </c>
+      <c r="L32" s="2">
+        <f t="shared" si="7"/>
+        <v>1.6263062656332712E-2</v>
+      </c>
+      <c r="M32">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="1"/>
-        <v>3.8</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="2"/>
-        <v>3.4</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="3"/>
-        <v>3.1</v>
-      </c>
-      <c r="K32" s="2">
-        <f t="shared" si="4"/>
-        <v>3.1476895463869767E-2</v>
-      </c>
-      <c r="L32" s="2">
-        <f t="shared" si="5"/>
-        <v>1.6263062656332712E-2</v>
-      </c>
-      <c r="M32">
-        <f>B32-C32-D32</f>
         <v>0</v>
       </c>
       <c r="N32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
@@ -8622,43 +8622,43 @@
         <v>62</v>
       </c>
       <c r="F33">
-        <f>E33-E32</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G33">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="3"/>
+        <v>2.8</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="4"/>
+        <v>2.9</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="5"/>
+        <v>3.1</v>
+      </c>
+      <c r="K33" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="2">
+        <f t="shared" si="7"/>
+        <v>1.6263062656332712E-2</v>
+      </c>
+      <c r="M33">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="1"/>
-        <v>2.8</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="2"/>
-        <v>2.9</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="3"/>
-        <v>3.1</v>
-      </c>
-      <c r="K33" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L33" s="2">
-        <f t="shared" si="5"/>
-        <v>1.6263062656332712E-2</v>
-      </c>
-      <c r="M33">
-        <f>B33-C33-D33</f>
         <v>0</v>
       </c>
       <c r="N33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
@@ -8679,43 +8679,43 @@
         <v>64</v>
       </c>
       <c r="F34">
-        <f>E34-E33</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G34">
+        <f t="shared" si="2"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="3"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="5"/>
+        <v>3.2</v>
+      </c>
+      <c r="K34" s="2">
+        <f t="shared" si="6"/>
+        <v>1.0492298487956589E-2</v>
+      </c>
+      <c r="L34" s="2">
+        <f t="shared" si="7"/>
+        <v>1.6787677580730541E-2</v>
+      </c>
+      <c r="M34">
         <f t="shared" si="0"/>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="1"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="I34">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="3"/>
-        <v>3.2</v>
-      </c>
-      <c r="K34" s="2">
-        <f t="shared" si="4"/>
-        <v>1.0492298487956589E-2</v>
-      </c>
-      <c r="L34" s="2">
-        <f t="shared" si="5"/>
-        <v>1.6787677580730541E-2</v>
-      </c>
-      <c r="M34">
-        <f>B34-C34-D34</f>
         <v>0</v>
       </c>
       <c r="N34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.6666666666666665</v>
       </c>
     </row>
@@ -8736,43 +8736,43 @@
         <v>72</v>
       </c>
       <c r="F35">
-        <f>E35-E34</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G35">
+        <f t="shared" si="2"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="3"/>
+        <v>3.8</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="4"/>
+        <v>3.5</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="5"/>
+        <v>3.6</v>
+      </c>
+      <c r="K35" s="2">
+        <f t="shared" si="6"/>
+        <v>4.1969193951826356E-2</v>
+      </c>
+      <c r="L35" s="2">
+        <f t="shared" si="7"/>
+        <v>1.8886137278321859E-2</v>
+      </c>
+      <c r="M35">
         <f t="shared" si="0"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="1"/>
-        <v>3.8</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="2"/>
-        <v>3.5</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="3"/>
-        <v>3.6</v>
-      </c>
-      <c r="K35" s="2">
-        <f t="shared" si="4"/>
-        <v>4.1969193951826356E-2</v>
-      </c>
-      <c r="L35" s="2">
-        <f t="shared" si="5"/>
-        <v>1.8886137278321859E-2</v>
-      </c>
-      <c r="M35">
-        <f>B35-C35-D35</f>
         <v>0</v>
       </c>
       <c r="N35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.3333333333333335</v>
       </c>
     </row>
@@ -8793,43 +8793,43 @@
         <v>74</v>
       </c>
       <c r="F36">
-        <f>E36-E35</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G36">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="3"/>
+        <v>3.6</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="4"/>
+        <v>3.6</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="5"/>
+        <v>3.7</v>
+      </c>
+      <c r="K36" s="2">
+        <f t="shared" si="6"/>
+        <v>1.0492298487956589E-2</v>
+      </c>
+      <c r="L36" s="2">
+        <f t="shared" si="7"/>
+        <v>1.9410752202719688E-2</v>
+      </c>
+      <c r="M36">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="1"/>
-        <v>3.6</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="2"/>
-        <v>3.6</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="3"/>
-        <v>3.7</v>
-      </c>
-      <c r="K36" s="2">
-        <f t="shared" si="4"/>
-        <v>1.0492298487956589E-2</v>
-      </c>
-      <c r="L36" s="2">
-        <f t="shared" si="5"/>
-        <v>1.9410752202719688E-2</v>
-      </c>
-      <c r="M36">
-        <f>B36-C36-D36</f>
         <v>0</v>
       </c>
       <c r="N36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
@@ -8850,43 +8850,43 @@
         <v>75</v>
       </c>
       <c r="F37">
-        <f>E37-E36</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G37">
+        <f t="shared" si="2"/>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="3"/>
+        <v>2.6</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="4"/>
+        <v>3.2</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="5"/>
+        <v>3.75</v>
+      </c>
+      <c r="K37" s="2">
+        <f t="shared" si="6"/>
+        <v>5.2461492439782945E-3</v>
+      </c>
+      <c r="L37" s="2">
+        <f t="shared" si="7"/>
+        <v>1.9673059664918606E-2</v>
+      </c>
+      <c r="M37">
         <f t="shared" si="0"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="1"/>
-        <v>2.6</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="2"/>
-        <v>3.2</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="3"/>
-        <v>3.75</v>
-      </c>
-      <c r="K37" s="2">
-        <f t="shared" si="4"/>
-        <v>5.2461492439782945E-3</v>
-      </c>
-      <c r="L37" s="2">
-        <f t="shared" si="5"/>
-        <v>1.9673059664918606E-2</v>
-      </c>
-      <c r="M37">
-        <f>B37-C37-D37</f>
         <v>0</v>
       </c>
       <c r="N37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.6666666666666665</v>
       </c>
     </row>
@@ -8907,43 +8907,43 @@
         <v>76</v>
       </c>
       <c r="F38">
-        <f>E38-E37</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G38">
+        <f t="shared" si="2"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="3"/>
+        <v>2.8</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="4"/>
+        <v>2.8</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="5"/>
+        <v>3.8</v>
+      </c>
+      <c r="K38" s="2">
+        <f t="shared" si="6"/>
+        <v>5.2461492439782945E-3</v>
+      </c>
+      <c r="L38" s="2">
+        <f t="shared" si="7"/>
+        <v>1.993536712711752E-2</v>
+      </c>
+      <c r="M38">
         <f t="shared" si="0"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="1"/>
-        <v>2.8</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="2"/>
-        <v>2.8</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="3"/>
-        <v>3.8</v>
-      </c>
-      <c r="K38" s="2">
-        <f t="shared" si="4"/>
-        <v>5.2461492439782945E-3</v>
-      </c>
-      <c r="L38" s="2">
-        <f t="shared" si="5"/>
-        <v>1.993536712711752E-2</v>
-      </c>
-      <c r="M38">
-        <f>B38-C38-D38</f>
         <v>0</v>
       </c>
       <c r="N38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.3333333333333333</v>
       </c>
     </row>
@@ -8964,43 +8964,43 @@
         <v>76</v>
       </c>
       <c r="F39">
-        <f>E39-E38</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G39">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="3"/>
+        <v>2.4</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="4"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="5"/>
+        <v>3.8</v>
+      </c>
+      <c r="K39" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="2">
+        <f t="shared" si="7"/>
+        <v>1.993536712711752E-2</v>
+      </c>
+      <c r="M39">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="1"/>
-        <v>2.4</v>
-      </c>
-      <c r="I39">
-        <f t="shared" si="2"/>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="3"/>
-        <v>3.8</v>
-      </c>
-      <c r="K39" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L39" s="2">
-        <f t="shared" si="5"/>
-        <v>1.993536712711752E-2</v>
-      </c>
-      <c r="M39">
-        <f>B39-C39-D39</f>
         <v>0</v>
       </c>
       <c r="N39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -9021,43 +9021,43 @@
         <v>77</v>
       </c>
       <c r="F40">
-        <f>E40-E39</f>
-        <v>1</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H40">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="G40">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="I40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.4</v>
       </c>
       <c r="J40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.85</v>
       </c>
       <c r="K40" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.2461492439782945E-3</v>
       </c>
       <c r="L40" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.0197674589316435E-2</v>
       </c>
       <c r="M40">
-        <f>B40-C40-D40</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -9078,43 +9078,43 @@
         <v>78</v>
       </c>
       <c r="F41">
-        <f>E41-E40</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G41">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="4"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="5"/>
+        <v>2.9</v>
+      </c>
+      <c r="K41" s="2">
+        <f t="shared" si="6"/>
+        <v>5.2461492439782945E-3</v>
+      </c>
+      <c r="L41" s="2">
+        <f t="shared" si="7"/>
+        <v>1.5213832807537056E-2</v>
+      </c>
+      <c r="M41">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="I41">
-        <f t="shared" si="2"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="J41">
-        <f t="shared" si="3"/>
-        <v>2.9</v>
-      </c>
-      <c r="K41" s="2">
-        <f t="shared" si="4"/>
-        <v>5.2461492439782945E-3</v>
-      </c>
-      <c r="L41" s="2">
-        <f t="shared" si="5"/>
-        <v>1.5213832807537056E-2</v>
-      </c>
-      <c r="M41">
-        <f>B41-C41-D41</f>
         <v>0</v>
       </c>
       <c r="N41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -9135,43 +9135,43 @@
         <v>80</v>
       </c>
       <c r="F42">
-        <f>E42-E41</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G42">
+        <f t="shared" si="2"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="4"/>
+        <v>1.8</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="5"/>
+        <v>2.6</v>
+      </c>
+      <c r="K42" s="2">
+        <f t="shared" si="6"/>
+        <v>1.0492298487956589E-2</v>
+      </c>
+      <c r="L42" s="2">
+        <f t="shared" si="7"/>
+        <v>1.3639988034343565E-2</v>
+      </c>
+      <c r="M42">
         <f t="shared" si="0"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I42">
-        <f t="shared" si="2"/>
-        <v>1.8</v>
-      </c>
-      <c r="J42">
-        <f t="shared" si="3"/>
-        <v>2.6</v>
-      </c>
-      <c r="K42" s="2">
-        <f t="shared" si="4"/>
-        <v>1.0492298487956589E-2</v>
-      </c>
-      <c r="L42" s="2">
-        <f t="shared" si="5"/>
-        <v>1.3639988034343565E-2</v>
-      </c>
-      <c r="M42">
-        <f>B42-C42-D42</f>
         <v>0</v>
       </c>
       <c r="N42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.3333333333333333</v>
       </c>
     </row>
@@ -9192,43 +9192,43 @@
         <v>80</v>
       </c>
       <c r="F43">
-        <f>E43-E42</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G43">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="4"/>
+        <v>1.8</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="5"/>
+        <v>2.35</v>
+      </c>
+      <c r="K43" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L43" s="2">
+        <f t="shared" si="7"/>
+        <v>1.2328450723348988E-2</v>
+      </c>
+      <c r="M43">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="I43">
-        <f t="shared" si="2"/>
-        <v>1.8</v>
-      </c>
-      <c r="J43">
-        <f t="shared" si="3"/>
-        <v>2.35</v>
-      </c>
-      <c r="K43" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L43" s="2">
-        <f t="shared" si="5"/>
-        <v>1.2328450723348988E-2</v>
-      </c>
-      <c r="M43">
-        <f>B43-C43-D43</f>
         <v>0</v>
       </c>
       <c r="N43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -9249,43 +9249,43 @@
         <v>82</v>
       </c>
       <c r="F44">
-        <f>E44-E43</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G44">
+        <f t="shared" si="2"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="3"/>
+        <v>1.2</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="4"/>
+        <v>1.8</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="5"/>
+        <v>2.4</v>
+      </c>
+      <c r="K44" s="2">
+        <f t="shared" si="6"/>
+        <v>1.0492298487956589E-2</v>
+      </c>
+      <c r="L44" s="2">
+        <f t="shared" si="7"/>
+        <v>1.2590758185547904E-2</v>
+      </c>
+      <c r="M44">
         <f t="shared" si="0"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="1"/>
-        <v>1.2</v>
-      </c>
-      <c r="I44">
-        <f t="shared" si="2"/>
-        <v>1.8</v>
-      </c>
-      <c r="J44">
-        <f t="shared" si="3"/>
-        <v>2.4</v>
-      </c>
-      <c r="K44" s="2">
-        <f t="shared" si="4"/>
-        <v>1.0492298487956589E-2</v>
-      </c>
-      <c r="L44" s="2">
-        <f t="shared" si="5"/>
-        <v>1.2590758185547904E-2</v>
-      </c>
-      <c r="M44">
-        <f>B44-C44-D44</f>
         <v>0</v>
       </c>
       <c r="N44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.3333333333333333</v>
       </c>
     </row>
@@ -9306,43 +9306,43 @@
         <v>82</v>
       </c>
       <c r="F45">
-        <f>E45-E44</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G45">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="5"/>
+        <v>2.25</v>
+      </c>
+      <c r="K45" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="2">
+        <f t="shared" si="7"/>
+        <v>1.1803835798951159E-2</v>
+      </c>
+      <c r="M45">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H45">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I45">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J45">
-        <f t="shared" si="3"/>
-        <v>2.25</v>
-      </c>
-      <c r="K45" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L45" s="2">
-        <f t="shared" si="5"/>
-        <v>1.1803835798951159E-2</v>
-      </c>
-      <c r="M45">
-        <f>B45-C45-D45</f>
         <v>0</v>
       </c>
       <c r="N45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -9363,43 +9363,43 @@
         <v>82</v>
       </c>
       <c r="F46">
-        <f>E46-E45</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G46">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="5"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K46" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L46" s="2">
+        <f t="shared" si="7"/>
+        <v>1.1541528336752243E-2</v>
+      </c>
+      <c r="M46">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H46">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="I46">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
-      </c>
-      <c r="J46">
-        <f t="shared" si="3"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="K46" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L46" s="2">
-        <f t="shared" si="5"/>
-        <v>1.1541528336752243E-2</v>
-      </c>
-      <c r="M46">
-        <f>B46-C46-D46</f>
         <v>0</v>
       </c>
       <c r="N46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -9420,43 +9420,43 @@
         <v>83</v>
       </c>
       <c r="F47">
-        <f>E47-E46</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G47">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="K47" s="2">
+        <f t="shared" si="6"/>
+        <v>5.2461492439782945E-3</v>
+      </c>
+      <c r="L47" s="2">
+        <f t="shared" si="7"/>
+        <v>1.0492298487956585E-2</v>
+      </c>
+      <c r="M47">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="H47">
-        <f t="shared" si="1"/>
-        <v>0.6</v>
-      </c>
-      <c r="I47">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
-      </c>
-      <c r="J47">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="K47" s="2">
-        <f t="shared" si="4"/>
-        <v>5.2461492439782945E-3</v>
-      </c>
-      <c r="L47" s="2">
-        <f t="shared" si="5"/>
-        <v>1.0492298487956585E-2</v>
-      </c>
-      <c r="M47">
-        <f>B47-C47-D47</f>
         <v>0</v>
       </c>
       <c r="N47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -9477,43 +9477,43 @@
         <v>86</v>
       </c>
       <c r="F48">
-        <f>E48-E47</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G48">
+        <f t="shared" si="2"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="3"/>
+        <v>1.2</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="5"/>
+        <v>1.9</v>
+      </c>
+      <c r="K48" s="2">
+        <f t="shared" si="6"/>
+        <v>1.5738447731934883E-2</v>
+      </c>
+      <c r="L48" s="2">
+        <f t="shared" si="7"/>
+        <v>9.9676835635587567E-3</v>
+      </c>
+      <c r="M48">
         <f t="shared" si="0"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="H48">
-        <f t="shared" si="1"/>
-        <v>1.2</v>
-      </c>
-      <c r="I48">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J48">
-        <f t="shared" si="3"/>
-        <v>1.9</v>
-      </c>
-      <c r="K48" s="2">
-        <f t="shared" si="4"/>
-        <v>1.5738447731934883E-2</v>
-      </c>
-      <c r="L48" s="2">
-        <f t="shared" si="5"/>
-        <v>9.9676835635587567E-3</v>
-      </c>
-      <c r="M48">
-        <f>B48-C48-D48</f>
         <v>0</v>
       </c>
       <c r="N48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.3333333333333333</v>
       </c>
     </row>
@@ -9534,43 +9534,43 @@
         <v>98</v>
       </c>
       <c r="F49">
-        <f>E49-E48</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="G49">
+        <f t="shared" si="2"/>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="3"/>
+        <v>3.2</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="4"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="5"/>
+        <v>2.25</v>
+      </c>
+      <c r="K49" s="2">
+        <f t="shared" si="6"/>
+        <v>6.2953790927739534E-2</v>
+      </c>
+      <c r="L49" s="2">
+        <f t="shared" si="7"/>
+        <v>1.1803835798951163E-2</v>
+      </c>
+      <c r="M49">
         <f t="shared" si="0"/>
-        <v>5.333333333333333</v>
-      </c>
-      <c r="H49">
-        <f t="shared" si="1"/>
-        <v>3.2</v>
-      </c>
-      <c r="I49">
-        <f t="shared" si="2"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="J49">
-        <f t="shared" si="3"/>
-        <v>2.25</v>
-      </c>
-      <c r="K49" s="2">
-        <f t="shared" si="4"/>
-        <v>6.2953790927739534E-2</v>
-      </c>
-      <c r="L49" s="2">
-        <f t="shared" si="5"/>
-        <v>1.1803835798951163E-2</v>
-      </c>
-      <c r="M49">
-        <f>B49-C49-D49</f>
         <v>0</v>
       </c>
       <c r="N49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.333333333333333</v>
       </c>
     </row>
@@ -9591,43 +9591,43 @@
         <v>112</v>
       </c>
       <c r="F50">
-        <f>E50-E49</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="G50">
+        <f t="shared" si="2"/>
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="4"/>
+        <v>3.5</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="5"/>
+        <v>2.95</v>
+      </c>
+      <c r="K50" s="2">
+        <f t="shared" si="6"/>
+        <v>7.3446089415696122E-2</v>
+      </c>
+      <c r="L50" s="2">
+        <f t="shared" si="7"/>
+        <v>1.5476140269735969E-2</v>
+      </c>
+      <c r="M50">
         <f t="shared" si="0"/>
-        <v>9.6666666666666661</v>
-      </c>
-      <c r="H50">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="I50">
-        <f t="shared" si="2"/>
-        <v>3.5</v>
-      </c>
-      <c r="J50">
-        <f t="shared" si="3"/>
-        <v>2.95</v>
-      </c>
-      <c r="K50" s="2">
-        <f t="shared" si="4"/>
-        <v>7.3446089415696122E-2</v>
-      </c>
-      <c r="L50" s="2">
-        <f t="shared" si="5"/>
-        <v>1.5476140269735969E-2</v>
-      </c>
-      <c r="M50">
-        <f>B50-C50-D50</f>
         <v>0</v>
       </c>
       <c r="N50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.6666666666666661</v>
       </c>
       <c r="P50">
@@ -9651,43 +9651,43 @@
         <v>135</v>
       </c>
       <c r="F51">
-        <f>E51-E50</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="G51">
+        <f t="shared" si="2"/>
+        <v>16.333333333333332</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="3"/>
+        <v>10.6</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="4"/>
+        <v>5.7</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="5"/>
+        <v>3.95</v>
+      </c>
+      <c r="K51" s="2">
+        <f t="shared" si="6"/>
+        <v>0.12066143261150078</v>
+      </c>
+      <c r="L51" s="2">
+        <f t="shared" si="7"/>
+        <v>2.0722289513714263E-2</v>
+      </c>
+      <c r="M51">
         <f t="shared" si="0"/>
-        <v>16.333333333333332</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="1"/>
-        <v>10.6</v>
-      </c>
-      <c r="I51">
-        <f t="shared" si="2"/>
-        <v>5.7</v>
-      </c>
-      <c r="J51">
-        <f t="shared" si="3"/>
-        <v>3.95</v>
-      </c>
-      <c r="K51" s="2">
-        <f t="shared" si="4"/>
-        <v>0.12066143261150078</v>
-      </c>
-      <c r="L51" s="2">
-        <f t="shared" si="5"/>
-        <v>2.0722289513714263E-2</v>
-      </c>
-      <c r="M51">
-        <f>B51-C51-D51</f>
         <v>0</v>
       </c>
       <c r="N51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>16.333333333333332</v>
       </c>
       <c r="P51">
@@ -9711,43 +9711,43 @@
         <v>170</v>
       </c>
       <c r="F52">
-        <f>E52-E51</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="G52">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="3"/>
+        <v>17.399999999999999</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="5"/>
+        <v>5.4</v>
+      </c>
+      <c r="K52" s="2">
+        <f t="shared" si="6"/>
+        <v>0.18361522353924031</v>
+      </c>
+      <c r="L52" s="2">
+        <f t="shared" si="7"/>
+        <v>2.8329205917482791E-2</v>
+      </c>
+      <c r="M52">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="1"/>
-        <v>17.399999999999999</v>
-      </c>
-      <c r="I52">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="J52">
-        <f t="shared" si="3"/>
-        <v>5.4</v>
-      </c>
-      <c r="K52" s="2">
-        <f t="shared" si="4"/>
-        <v>0.18361522353924031</v>
-      </c>
-      <c r="L52" s="2">
-        <f t="shared" si="5"/>
-        <v>2.8329205917482791E-2</v>
-      </c>
-      <c r="M52">
-        <f>B52-C52-D52</f>
         <v>0</v>
       </c>
       <c r="N52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
       <c r="P52">
@@ -9771,43 +9771,43 @@
         <v>193</v>
       </c>
       <c r="F53">
-        <f>E53-E52</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="G53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="H53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>21.4</v>
       </c>
       <c r="I53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11.3</v>
       </c>
       <c r="J53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.55</v>
       </c>
       <c r="K53" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.12066143261150078</v>
       </c>
       <c r="L53" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.4362277548057832E-2</v>
       </c>
       <c r="M53">
-        <f>B53-C53-D53</f>
+        <f t="shared" ref="M53:M84" si="10">B53-C53-D53</f>
         <v>0</v>
       </c>
       <c r="N53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
       <c r="P53">
@@ -9831,43 +9831,43 @@
         <v>200</v>
       </c>
       <c r="F54">
-        <f>E54-E53</f>
+        <f t="shared" ref="F54:F85" si="11">E54-E53</f>
         <v>7</v>
       </c>
       <c r="G54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>21.666666666666668</v>
       </c>
       <c r="H54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>20.399999999999999</v>
       </c>
       <c r="I54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11.8</v>
       </c>
       <c r="J54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.8</v>
       </c>
       <c r="K54" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.6723044707848061E-2</v>
       </c>
       <c r="L54" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.5673814859052397E-2</v>
       </c>
       <c r="M54">
-        <f>B54-C54-D54</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>21.666666666666668</v>
       </c>
       <c r="P54">
@@ -9891,43 +9891,43 @@
         <v>211</v>
       </c>
       <c r="F55">
-        <f>E55-E54</f>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
       <c r="G55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13.666666666666666</v>
       </c>
       <c r="H55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>19.8</v>
       </c>
       <c r="I55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12.9</v>
       </c>
       <c r="J55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.95</v>
       </c>
       <c r="K55" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.7707641683761239E-2</v>
       </c>
       <c r="L55" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.6460737245649147E-2</v>
       </c>
       <c r="M55">
-        <f>B55-C55-D55</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="N55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.5738447731934883E-2</v>
       </c>
       <c r="O55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>13.666666666666666</v>
       </c>
       <c r="P55">
@@ -9951,43 +9951,43 @@
         <v>262</v>
       </c>
       <c r="F56">
-        <f>E56-E55</f>
+        <f t="shared" si="11"/>
         <v>51</v>
       </c>
       <c r="G56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="H56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>25.4</v>
       </c>
       <c r="I56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="J56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9.4</v>
       </c>
       <c r="K56" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.26755361144289302</v>
       </c>
       <c r="L56" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.9313802893395965E-2</v>
       </c>
       <c r="M56">
-        <f>B56-C56-D56</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="N56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.5738447731934883E-2</v>
       </c>
       <c r="O56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>23</v>
       </c>
       <c r="P56">
@@ -10011,43 +10011,43 @@
         <v>340</v>
       </c>
       <c r="F57">
-        <f>E57-E56</f>
+        <f t="shared" si="11"/>
         <v>78</v>
       </c>
       <c r="G57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>46.666666666666664</v>
       </c>
       <c r="H57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="I57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>25.7</v>
       </c>
       <c r="J57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>13.25</v>
       </c>
       <c r="K57" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.40919964103030698</v>
       </c>
       <c r="L57" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.95114774827124E-2</v>
       </c>
       <c r="M57">
-        <f>B57-C57-D57</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="N57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.6230746219891472E-2</v>
       </c>
       <c r="O57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>46.666666666666664</v>
       </c>
       <c r="P57">
@@ -10071,43 +10071,43 @@
         <v>407</v>
       </c>
       <c r="F58">
-        <f>E58-E57</f>
+        <f t="shared" si="11"/>
         <v>67</v>
       </c>
       <c r="G58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>65.333333333333329</v>
       </c>
       <c r="H58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>42.8</v>
       </c>
       <c r="I58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>32.1</v>
       </c>
       <c r="J58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16.55</v>
       </c>
       <c r="K58" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.35149199934654574</v>
       </c>
       <c r="L58" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8.6823769987840776E-2</v>
       </c>
       <c r="M58">
-        <f>B58-C58-D58</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="N58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.6230746219891472E-2</v>
       </c>
       <c r="O58">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>65.333333333333329</v>
       </c>
       <c r="P58">
@@ -10131,43 +10131,43 @@
         <v>483</v>
       </c>
       <c r="F59">
-        <f>E59-E58</f>
+        <f t="shared" si="11"/>
         <v>76</v>
       </c>
       <c r="G59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>73.666666666666671</v>
       </c>
       <c r="H59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>56.6</v>
       </c>
       <c r="I59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>38.5</v>
       </c>
       <c r="J59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>20.350000000000001</v>
       </c>
       <c r="K59" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.39870734254235041</v>
       </c>
       <c r="L59" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.10675913711495828</v>
       </c>
       <c r="M59">
-        <f>B59-C59-D59</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="N59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.1969193951826356E-2</v>
       </c>
       <c r="O59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>73.666666666666671</v>
       </c>
       <c r="P59">
@@ -10191,43 +10191,43 @@
         <v>594</v>
       </c>
       <c r="F60">
-        <f>E60-E59</f>
+        <f t="shared" si="11"/>
         <v>111</v>
       </c>
       <c r="G60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>84.666666666666671</v>
       </c>
       <c r="H60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>76.599999999999994</v>
       </c>
       <c r="I60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>48.2</v>
       </c>
       <c r="J60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>25.85</v>
       </c>
       <c r="K60" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.58232256608159072</v>
       </c>
       <c r="L60" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.13561295795683889</v>
       </c>
       <c r="M60">
-        <f>B60-C60-D60</f>
+        <f t="shared" si="10"/>
         <v>19</v>
       </c>
       <c r="N60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.9676835635587602E-2</v>
       </c>
       <c r="O60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>84.666666666666671</v>
       </c>
       <c r="P60">
@@ -10251,43 +10251,43 @@
         <v>787</v>
       </c>
       <c r="F61">
-        <f>E61-E60</f>
+        <f t="shared" si="11"/>
         <v>193</v>
       </c>
       <c r="G61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>126.66666666666667</v>
       </c>
       <c r="H61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>105</v>
       </c>
       <c r="I61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>65.2</v>
       </c>
       <c r="J61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>35.450000000000003</v>
       </c>
       <c r="K61" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.0125068040878109</v>
       </c>
       <c r="L61" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.18597599069903054</v>
       </c>
       <c r="M61">
-        <f>B61-C61-D61</f>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
       <c r="N61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.13639988034343567</v>
       </c>
       <c r="O61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>126.66666666666667</v>
       </c>
       <c r="P61">
@@ -10311,43 +10311,43 @@
         <v>928</v>
       </c>
       <c r="F62">
-        <f>E62-E61</f>
+        <f t="shared" si="11"/>
         <v>141</v>
       </c>
       <c r="G62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>148.33333333333334</v>
       </c>
       <c r="H62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>117.6</v>
       </c>
       <c r="I62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>75.8</v>
       </c>
       <c r="J62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>42.4</v>
       </c>
       <c r="K62" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.73970704340093951</v>
       </c>
       <c r="L62" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.22243672794467967</v>
       </c>
       <c r="M62">
-        <f>B62-C62-D62</f>
+        <f t="shared" si="10"/>
         <v>32</v>
       </c>
       <c r="N62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.16787677580730542</v>
       </c>
       <c r="O62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>148.33333333333334</v>
       </c>
       <c r="P62">
@@ -10371,43 +10371,43 @@
         <v>1193</v>
       </c>
       <c r="F63">
-        <f>E63-E62</f>
+        <f t="shared" si="11"/>
         <v>265</v>
       </c>
       <c r="G63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>199.66666666666666</v>
       </c>
       <c r="H63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>157.19999999999999</v>
       </c>
       <c r="I63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="J63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>55.65</v>
       </c>
       <c r="K63" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.3902295496542481</v>
       </c>
       <c r="L63" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.29194820542739208</v>
       </c>
       <c r="M63">
-        <f>B63-C63-D63</f>
+        <f t="shared" si="10"/>
         <v>38</v>
       </c>
       <c r="N63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.1993536712711752</v>
       </c>
       <c r="O63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>199.66666666666666</v>
       </c>
       <c r="P63">
@@ -10431,43 +10431,43 @@
         <v>1358</v>
       </c>
       <c r="F64">
-        <f>E64-E63</f>
+        <f t="shared" si="11"/>
         <v>165</v>
       </c>
       <c r="G64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>190.33333333333334</v>
       </c>
       <c r="H64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>175</v>
       </c>
       <c r="I64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>115.8</v>
       </c>
       <c r="J64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>63.8</v>
       </c>
       <c r="K64" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.86561462525641863</v>
       </c>
       <c r="L64" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.33470432176581522</v>
       </c>
       <c r="M64">
-        <f>B64-C64-D64</f>
+        <f t="shared" si="10"/>
         <v>63</v>
       </c>
       <c r="N64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.33050740237063259</v>
       </c>
       <c r="O64">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>190.33333333333334</v>
       </c>
       <c r="P64">
@@ -10491,43 +10491,43 @@
         <v>1816</v>
       </c>
       <c r="F65">
-        <f>E65-E64</f>
+        <f t="shared" si="11"/>
         <v>458</v>
       </c>
       <c r="G65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>296</v>
       </c>
       <c r="H65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>244.4</v>
       </c>
       <c r="I65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>160.5</v>
       </c>
       <c r="J65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>86.7</v>
       </c>
       <c r="K65" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.4027363537420587</v>
       </c>
       <c r="L65" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.45484113945291815</v>
       </c>
       <c r="M65">
-        <f>B65-C65-D65</f>
+        <f t="shared" si="10"/>
         <v>94</v>
       </c>
       <c r="N65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.49313802893395969</v>
       </c>
       <c r="O65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>296</v>
       </c>
       <c r="P65">
@@ -10551,43 +10551,43 @@
         <v>2353</v>
       </c>
       <c r="F66">
-        <f>E66-E65</f>
+        <f t="shared" si="11"/>
         <v>537</v>
       </c>
       <c r="G66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>386.66666666666669</v>
       </c>
       <c r="H66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>313.2</v>
       </c>
       <c r="I66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>209.1</v>
       </c>
       <c r="J66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>113.55</v>
       </c>
       <c r="K66" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.817182144016344</v>
       </c>
       <c r="L66" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.59570024665373533</v>
       </c>
       <c r="M66">
-        <f>B66-C66-D66</f>
+        <f t="shared" si="10"/>
         <v>116</v>
       </c>
       <c r="N66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.60855331230148213</v>
       </c>
       <c r="O66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>386.66666666666669</v>
       </c>
       <c r="P66">
@@ -10611,43 +10611,43 @@
         <v>3198</v>
       </c>
       <c r="F67">
-        <f>E67-E66</f>
+        <f t="shared" si="11"/>
         <v>845</v>
       </c>
       <c r="G67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>613.33333333333337</v>
       </c>
       <c r="H67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>454</v>
       </c>
       <c r="I67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>285.8</v>
       </c>
       <c r="J67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>155.75</v>
       </c>
       <c r="K67" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.4329961111616587</v>
       </c>
       <c r="L67" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.81708774474961943</v>
       </c>
       <c r="M67">
-        <f>B67-C67-D67</f>
+        <f t="shared" si="10"/>
         <v>141</v>
       </c>
       <c r="N67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.73970704340093951</v>
       </c>
       <c r="O67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>613.33333333333337</v>
       </c>
       <c r="P67">
@@ -10671,43 +10671,43 @@
         <v>4184</v>
       </c>
       <c r="F68">
-        <f>E68-E67</f>
+        <f t="shared" si="11"/>
         <v>986</v>
       </c>
       <c r="G68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>789.33333333333337</v>
       </c>
       <c r="H68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>598.20000000000005</v>
       </c>
       <c r="I68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>377.7</v>
       </c>
       <c r="J68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>204.9</v>
       </c>
       <c r="K68" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.1727031545625985</v>
       </c>
       <c r="L68" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0749359800911527</v>
       </c>
       <c r="M68">
-        <f>B68-C68-D68</f>
+        <f t="shared" si="10"/>
         <v>189</v>
       </c>
       <c r="N68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.99152220711189765</v>
       </c>
       <c r="O68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>789.33333333333337</v>
       </c>
       <c r="P68">
@@ -10731,43 +10731,43 @@
         <v>5212</v>
       </c>
       <c r="F69">
-        <f>E69-E68</f>
+        <f t="shared" si="11"/>
         <v>1028</v>
       </c>
       <c r="G69">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>953</v>
       </c>
       <c r="H69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>770.8</v>
       </c>
       <c r="I69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>472.9</v>
       </c>
       <c r="J69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>255.7</v>
       </c>
       <c r="K69" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.393041422809687</v>
       </c>
       <c r="L69" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.3414403616852499</v>
       </c>
       <c r="M69">
-        <f>B69-C69-D69</f>
+        <f t="shared" si="10"/>
         <v>295</v>
       </c>
       <c r="N69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.547614026973597</v>
       </c>
       <c r="O69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>953</v>
       </c>
       <c r="P69">
@@ -10791,43 +10791,43 @@
         <v>6531</v>
       </c>
       <c r="F70">
-        <f>E70-E69</f>
+        <f t="shared" si="11"/>
         <v>1319</v>
       </c>
       <c r="G70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1111</v>
       </c>
       <c r="H70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>943</v>
       </c>
       <c r="I70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>593.70000000000005</v>
       </c>
       <c r="J70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>320.95</v>
       </c>
       <c r="K70" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6.9196708528073705</v>
       </c>
       <c r="L70" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.6837515998548338</v>
       </c>
       <c r="M70">
-        <f>B70-C70-D70</f>
+        <f t="shared" si="10"/>
         <v>380</v>
       </c>
       <c r="N70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.993536712711752</v>
       </c>
       <c r="O70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1111</v>
       </c>
       <c r="P70">
@@ -10851,43 +10851,43 @@
         <v>7825</v>
       </c>
       <c r="F71">
-        <f>E71-E70</f>
+        <f t="shared" si="11"/>
         <v>1294</v>
       </c>
       <c r="G71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1213.6666666666667</v>
       </c>
       <c r="H71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1094.4000000000001</v>
       </c>
       <c r="I71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>703.8</v>
       </c>
       <c r="J71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>384.5</v>
       </c>
       <c r="K71" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6.7885171217079137</v>
       </c>
       <c r="L71" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.0171443843096544</v>
       </c>
       <c r="M71">
-        <f>B71-C71-D71</f>
+        <f t="shared" si="10"/>
         <v>447</v>
       </c>
       <c r="N71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.3450287120582978</v>
       </c>
       <c r="O71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1213.6666666666667</v>
       </c>
       <c r="P71">
@@ -10911,43 +10911,43 @@
         <v>9581</v>
       </c>
       <c r="F72">
-        <f>E72-E71</f>
+        <f t="shared" si="11"/>
         <v>1756</v>
       </c>
       <c r="G72">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1456.3333333333333</v>
       </c>
       <c r="H72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1276.5999999999999</v>
       </c>
       <c r="I72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>865.3</v>
       </c>
       <c r="J72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>470.55</v>
       </c>
       <c r="K72" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9.212238072425885</v>
       </c>
       <c r="L72" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.4685755267539866</v>
       </c>
       <c r="M72">
-        <f>B72-C72-D72</f>
+        <f t="shared" si="10"/>
         <v>557</v>
       </c>
       <c r="N72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.9221051288959101</v>
       </c>
       <c r="O72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1456.3333333333333</v>
       </c>
       <c r="P72">
@@ -10971,43 +10971,43 @@
         <v>11840</v>
       </c>
       <c r="F73">
-        <f>E73-E72</f>
+        <f t="shared" si="11"/>
         <v>2259</v>
       </c>
       <c r="G73">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1769.6666666666667</v>
       </c>
       <c r="H73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1531.2</v>
       </c>
       <c r="I73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1064.7</v>
       </c>
       <c r="J73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>582.35</v>
       </c>
       <c r="K73" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11.851051142146968</v>
       </c>
       <c r="L73" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.0550950122307596</v>
       </c>
       <c r="M73">
-        <f>B73-C73-D73</f>
+        <f t="shared" si="10"/>
         <v>761</v>
       </c>
       <c r="N73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.9923195746674822</v>
       </c>
       <c r="O73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1769.6666666666667</v>
       </c>
       <c r="P73">
@@ -11031,43 +11031,43 @@
         <v>13961</v>
       </c>
       <c r="F74">
-        <f>E74-E73</f>
+        <f t="shared" si="11"/>
         <v>2121</v>
       </c>
       <c r="G74">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2045.3333333333333</v>
       </c>
       <c r="H74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1749.8</v>
       </c>
       <c r="I74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1260.3</v>
       </c>
       <c r="J74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>688.05</v>
       </c>
       <c r="K74" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11.127082546477963</v>
       </c>
       <c r="L74" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.6096129873192653</v>
       </c>
       <c r="M74">
-        <f>B74-C74-D74</f>
+        <f t="shared" si="10"/>
         <v>881</v>
       </c>
       <c r="N74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.6218574839448774</v>
       </c>
       <c r="O74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2045.3333333333333</v>
       </c>
       <c r="P74">
@@ -11091,43 +11091,43 @@
         <v>15843</v>
       </c>
       <c r="F75">
-        <f>E75-E74</f>
+        <f t="shared" si="11"/>
         <v>1882</v>
       </c>
       <c r="G75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2087.3333333333335</v>
       </c>
       <c r="H75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1862.4</v>
       </c>
       <c r="I75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1402.7</v>
       </c>
       <c r="J75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>781.6</v>
       </c>
       <c r="K75" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9.8732528771671504</v>
       </c>
       <c r="L75" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.1003902490934347</v>
       </c>
       <c r="M75">
-        <f>B75-C75-D75</f>
+        <f t="shared" si="10"/>
         <v>1038</v>
       </c>
       <c r="N75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.4455029152494694</v>
       </c>
       <c r="O75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2087.3333333333335</v>
       </c>
       <c r="P75">
@@ -11151,43 +11151,43 @@
         <v>17644</v>
       </c>
       <c r="F76">
-        <f>E76-E75</f>
+        <f t="shared" si="11"/>
         <v>1801</v>
       </c>
       <c r="G76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1934.6666666666667</v>
       </c>
       <c r="H76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1963.8</v>
       </c>
       <c r="I76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1529.1</v>
       </c>
       <c r="J76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>869.1</v>
       </c>
       <c r="K76" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9.4483147884049092</v>
       </c>
       <c r="L76" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.5594283079415359</v>
       </c>
       <c r="M76">
-        <f>B76-C76-D76</f>
+        <f t="shared" si="10"/>
         <v>1151</v>
       </c>
       <c r="N76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.0383177798190175</v>
       </c>
       <c r="O76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1934.6666666666667</v>
       </c>
       <c r="P76">
@@ -11211,43 +11211,43 @@
         <v>19935</v>
       </c>
       <c r="F77">
-        <f>E77-E76</f>
+        <f t="shared" si="11"/>
         <v>2291</v>
       </c>
       <c r="G77">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1991.3333333333333</v>
       </c>
       <c r="H77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2070.8000000000002</v>
       </c>
       <c r="I77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1673.7</v>
       </c>
       <c r="J77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>979.75</v>
       </c>
       <c r="K77" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12.018927917954272</v>
       </c>
       <c r="L77" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.1399147217877346</v>
       </c>
       <c r="M77">
-        <f>B77-C77-D77</f>
+        <f t="shared" si="10"/>
         <v>1274</v>
       </c>
       <c r="N77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.6835941368283471</v>
       </c>
       <c r="O77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1991.3333333333333</v>
       </c>
       <c r="P77">
@@ -11271,43 +11271,43 @@
         <v>22997</v>
       </c>
       <c r="F78">
-        <f>E78-E77</f>
+        <f t="shared" si="11"/>
         <v>3062</v>
       </c>
       <c r="G78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2384.6666666666665</v>
       </c>
       <c r="H78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2231.4</v>
       </c>
       <c r="I78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1881.3</v>
       </c>
       <c r="J78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1129.5</v>
       </c>
       <c r="K78" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>16.063708985061538</v>
       </c>
       <c r="L78" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.925525571073484</v>
       </c>
       <c r="M78">
-        <f>B78-C78-D78</f>
+        <f t="shared" si="10"/>
         <v>1456</v>
       </c>
       <c r="N78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.6383932992323968</v>
       </c>
       <c r="O78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2384.6666666666665</v>
       </c>
       <c r="P78">
@@ -11331,43 +11331,43 @@
         <v>27104</v>
       </c>
       <c r="F79">
-        <f>E79-E78</f>
+        <f t="shared" si="11"/>
         <v>4107</v>
       </c>
       <c r="G79">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3153.3333333333335</v>
       </c>
       <c r="H79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2628.6</v>
       </c>
       <c r="I79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2189.1999999999998</v>
       </c>
       <c r="J79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1331.05</v>
       </c>
       <c r="K79" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>21.545934945018857</v>
       </c>
       <c r="L79" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.98288695119731</v>
       </c>
       <c r="M79">
-        <f>B79-C79-D79</f>
+        <f t="shared" si="10"/>
         <v>1738</v>
       </c>
       <c r="N79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.1178073860342757</v>
       </c>
       <c r="O79">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3153.3333333333335</v>
       </c>
       <c r="P79">
@@ -11391,43 +11391,43 @@
         <v>31737</v>
       </c>
       <c r="F80">
-        <f>E80-E79</f>
+        <f t="shared" si="11"/>
         <v>4633</v>
       </c>
       <c r="G80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3934</v>
       </c>
       <c r="H80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3178.8</v>
       </c>
       <c r="I80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2520.6</v>
       </c>
       <c r="J80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1557.15</v>
       </c>
       <c r="K80" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>24.30540944735144</v>
       </c>
       <c r="L80" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8.1690412952608025</v>
       </c>
       <c r="M80">
-        <f>B80-C80-D80</f>
+        <f t="shared" si="10"/>
         <v>1989</v>
       </c>
       <c r="N80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10.434590846272828</v>
       </c>
       <c r="O80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3934</v>
       </c>
       <c r="P80">
@@ -11451,43 +11451,43 @@
         <v>37096</v>
       </c>
       <c r="F81">
-        <f>E81-E80</f>
+        <f t="shared" si="11"/>
         <v>5359</v>
       </c>
       <c r="G81">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4699.666666666667</v>
       </c>
       <c r="H81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3890.4</v>
       </c>
       <c r="I81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2927.1</v>
       </c>
       <c r="J81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1815.45</v>
       </c>
       <c r="K81" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>28.114113798479682</v>
       </c>
       <c r="L81" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9.5241216449803954</v>
       </c>
       <c r="M81">
-        <f>B81-C81-D81</f>
+        <f t="shared" si="10"/>
         <v>2349</v>
       </c>
       <c r="N81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>12.323204574105015</v>
       </c>
       <c r="O81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4699.666666666667</v>
       </c>
       <c r="P81">
@@ -11511,43 +11511,43 @@
         <v>41320</v>
       </c>
       <c r="F82">
-        <f>E82-E81</f>
+        <f t="shared" si="11"/>
         <v>4224</v>
       </c>
       <c r="G82">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4738.666666666667</v>
       </c>
       <c r="H82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4277</v>
       </c>
       <c r="I82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3173.9</v>
       </c>
       <c r="J82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2019.6</v>
       </c>
       <c r="K82" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>22.159734406564315</v>
       </c>
       <c r="L82" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10.595123013138565</v>
       </c>
       <c r="M82">
-        <f>B82-C82-D82</f>
+        <f t="shared" si="10"/>
         <v>2601</v>
       </c>
       <c r="N82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13.645234183587544</v>
       </c>
       <c r="O82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4738.666666666667</v>
       </c>
       <c r="P82">
@@ -11571,43 +11571,43 @@
         <v>44168</v>
       </c>
       <c r="F83">
-        <f>E83-E82</f>
+        <f t="shared" si="11"/>
         <v>2848</v>
       </c>
       <c r="G83">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4143.666666666667</v>
       </c>
       <c r="H83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4234.2</v>
       </c>
       <c r="I83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3232.8</v>
       </c>
       <c r="J83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2148.75</v>
       </c>
       <c r="K83" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>14.941033046850183</v>
       </c>
       <c r="L83" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>11.272663187998361</v>
       </c>
       <c r="M83">
-        <f>B83-C83-D83</f>
+        <f t="shared" si="10"/>
         <v>2743</v>
       </c>
       <c r="N83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>14.390187376232463</v>
       </c>
       <c r="O83">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4143.666666666667</v>
       </c>
       <c r="P83">
@@ -11631,43 +11631,43 @@
         <v>49327</v>
       </c>
       <c r="F84">
-        <f>E84-E83</f>
+        <f t="shared" si="11"/>
         <v>5159</v>
       </c>
       <c r="G84">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4077</v>
       </c>
       <c r="H84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4444.6000000000004</v>
       </c>
       <c r="I84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3536.6</v>
       </c>
       <c r="J84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2398.4499999999998</v>
       </c>
       <c r="K84" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>27.06488394968402</v>
       </c>
       <c r="L84" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>12.582626654219741</v>
       </c>
       <c r="M84">
-        <f>B84-C84-D84</f>
+        <f t="shared" si="10"/>
         <v>2896</v>
       </c>
       <c r="N84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15.192848210561142</v>
       </c>
       <c r="O84">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4077</v>
       </c>
       <c r="P84">
@@ -11691,43 +11691,43 @@
         <v>55988</v>
       </c>
       <c r="F85">
-        <f>E85-E84</f>
+        <f t="shared" si="11"/>
         <v>6661</v>
       </c>
       <c r="G85">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4889.333333333333</v>
       </c>
       <c r="H85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4850.2</v>
       </c>
       <c r="I85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4014.5</v>
       </c>
       <c r="J85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2708.6</v>
       </c>
       <c r="K85" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>34.944600114139419</v>
       </c>
       <c r="L85" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>14.209719842239611</v>
       </c>
       <c r="M85">
-        <f>B85-C85-D85</f>
+        <f t="shared" ref="M85:M116" si="12">B85-C85-D85</f>
         <v>3182</v>
       </c>
       <c r="N85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>16.693246894338934</v>
       </c>
       <c r="O85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4889.333333333333</v>
       </c>
       <c r="P85">
@@ -11751,43 +11751,43 @@
         <v>62090</v>
       </c>
       <c r="F86">
-        <f>E86-E85</f>
+        <f t="shared" ref="F86:F117" si="13">E86-E85</f>
         <v>6102</v>
       </c>
       <c r="G86">
-        <f t="shared" ref="G86:G130" si="8">(F86+F85+F84)/3</f>
+        <f t="shared" ref="G86:G130" si="14">(F86+F85+F84)/3</f>
         <v>5974</v>
       </c>
       <c r="H86">
-        <f t="shared" ref="H86:H130" si="9">(F86+F85+F84+F83+F82)/5</f>
+        <f t="shared" ref="H86:H130" si="15">(F86+F85+F84+F83+F82)/5</f>
         <v>4998.8</v>
       </c>
       <c r="I86">
-        <f t="shared" ref="I86:I130" si="10">(F86+F85+F84+F83+F82+F81+F80+F79+F78+F77)/10</f>
+        <f t="shared" ref="I86:I130" si="16">(F86+F85+F84+F83+F82+F81+F80+F79+F78+F77)/10</f>
         <v>4444.6000000000004</v>
       </c>
       <c r="J86">
-        <f t="shared" ref="J86:J130" si="11">AVERAGE(F67:F86)</f>
+        <f t="shared" ref="J86:J130" si="17">AVERAGE(F67:F86)</f>
         <v>2986.85</v>
       </c>
       <c r="K86" s="2">
-        <f t="shared" ref="K86:K130" si="12">F86*56102/10693939</f>
+        <f t="shared" ref="K86:K130" si="18">F86*56102/10693939</f>
         <v>32.012002686755551</v>
       </c>
       <c r="L86" s="2">
-        <f t="shared" ref="L86:L130" si="13">AVERAGE(K67:K86)</f>
+        <f t="shared" ref="L86:L130" si="19">AVERAGE(K67:K86)</f>
         <v>15.66946086937657</v>
       </c>
       <c r="M86">
-        <f>B86-C86-D86</f>
+        <f t="shared" si="12"/>
         <v>3417</v>
       </c>
       <c r="N86">
-        <f t="shared" ref="N86:N130" si="14">M86*56102/10693939</f>
+        <f t="shared" ref="N86:N130" si="20">M86*56102/10693939</f>
         <v>17.926091966673834</v>
       </c>
       <c r="O86">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5974</v>
       </c>
       <c r="P86">
@@ -11811,43 +11811,43 @@
         <v>68763</v>
       </c>
       <c r="F87">
-        <f t="shared" ref="F87:F130" si="15">E87-E86</f>
+        <f t="shared" ref="F87:F130" si="21">E87-E86</f>
         <v>6673</v>
       </c>
       <c r="G87">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>6478.666666666667</v>
       </c>
       <c r="H87">
+        <f t="shared" si="15"/>
+        <v>5488.6</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="16"/>
+        <v>4882.8</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="17"/>
+        <v>3278.25</v>
+      </c>
+      <c r="K87" s="2">
+        <f t="shared" si="18"/>
+        <v>35.007553905067162</v>
+      </c>
+      <c r="L87" s="2">
+        <f t="shared" si="19"/>
+        <v>17.198188759071847</v>
+      </c>
+      <c r="M87">
+        <f t="shared" si="12"/>
+        <v>3646</v>
+      </c>
+      <c r="N87">
+        <f t="shared" si="20"/>
+        <v>19.127460143544862</v>
+      </c>
+      <c r="O87">
         <f t="shared" si="9"/>
-        <v>5488.6</v>
-      </c>
-      <c r="I87">
-        <f t="shared" si="10"/>
-        <v>4882.8</v>
-      </c>
-      <c r="J87">
-        <f t="shared" si="11"/>
-        <v>3278.25</v>
-      </c>
-      <c r="K87" s="2">
-        <f t="shared" si="12"/>
-        <v>35.007553905067162</v>
-      </c>
-      <c r="L87" s="2">
-        <f t="shared" si="13"/>
-        <v>17.198188759071847</v>
-      </c>
-      <c r="M87">
-        <f>B87-C87-D87</f>
-        <v>3646</v>
-      </c>
-      <c r="N87">
-        <f t="shared" si="14"/>
-        <v>19.127460143544862</v>
-      </c>
-      <c r="O87">
-        <f t="shared" si="7"/>
         <v>6478.666666666667</v>
       </c>
       <c r="P87">
@@ -11871,43 +11871,43 @@
         <v>76161</v>
       </c>
       <c r="F88">
+        <f t="shared" si="21"/>
+        <v>7398</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="14"/>
+        <v>6724.333333333333</v>
+      </c>
+      <c r="H88">
         <f t="shared" si="15"/>
-        <v>7398</v>
-      </c>
-      <c r="G88">
-        <f t="shared" si="8"/>
-        <v>6724.333333333333</v>
-      </c>
-      <c r="H88">
-        <f t="shared" si="9"/>
         <v>6398.6</v>
       </c>
       <c r="I88">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>5316.4</v>
       </c>
       <c r="J88">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>3598.85</v>
       </c>
       <c r="K88" s="2">
+        <f t="shared" si="18"/>
+        <v>38.811012106951424</v>
+      </c>
+      <c r="L88" s="2">
+        <f t="shared" si="19"/>
+        <v>18.880104206691282</v>
+      </c>
+      <c r="M88">
         <f t="shared" si="12"/>
-        <v>38.811012106951424</v>
-      </c>
-      <c r="L88" s="2">
-        <f t="shared" si="13"/>
-        <v>18.880104206691282</v>
-      </c>
-      <c r="M88">
-        <f>B88-C88-D88</f>
         <v>3917</v>
       </c>
       <c r="N88">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>20.549166588662981</v>
       </c>
       <c r="O88">
-        <f t="shared" ref="O88:O130" si="16">(F88+F87+F86)/3</f>
+        <f t="shared" ref="O88:O130" si="22">(F88+F87+F86)/3</f>
         <v>6724.333333333333</v>
       </c>
       <c r="P88">
@@ -11931,43 +11931,43 @@
         <v>81998</v>
       </c>
       <c r="F89">
+        <f t="shared" si="21"/>
+        <v>5837</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="14"/>
+        <v>6636</v>
+      </c>
+      <c r="H89">
         <f t="shared" si="15"/>
-        <v>5837</v>
-      </c>
-      <c r="G89">
-        <f t="shared" si="8"/>
-        <v>6636</v>
-      </c>
-      <c r="H89">
-        <f t="shared" si="9"/>
         <v>6534.2</v>
       </c>
       <c r="I89">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>5489.4</v>
       </c>
       <c r="J89">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>3839.3</v>
       </c>
       <c r="K89" s="2">
+        <f t="shared" si="18"/>
+        <v>30.621773137101307</v>
+      </c>
+      <c r="L89" s="2">
+        <f t="shared" si="19"/>
+        <v>20.141540792405863</v>
+      </c>
+      <c r="M89">
         <f t="shared" si="12"/>
-        <v>30.621773137101307</v>
-      </c>
-      <c r="L89" s="2">
-        <f t="shared" si="13"/>
-        <v>20.141540792405863</v>
-      </c>
-      <c r="M89">
-        <f>B89-C89-D89</f>
         <v>4153</v>
       </c>
       <c r="N89">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>21.787257810241858</v>
       </c>
       <c r="O89">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>6636</v>
       </c>
       <c r="P89">
@@ -11991,43 +11991,43 @@
         <v>86810</v>
       </c>
       <c r="F90">
+        <f t="shared" si="21"/>
+        <v>4812</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="14"/>
+        <v>6015.666666666667</v>
+      </c>
+      <c r="H90">
         <f t="shared" si="15"/>
-        <v>4812</v>
-      </c>
-      <c r="G90">
-        <f t="shared" si="8"/>
-        <v>6015.666666666667</v>
-      </c>
-      <c r="H90">
-        <f t="shared" si="9"/>
         <v>6164.4</v>
       </c>
       <c r="I90">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>5507.3</v>
       </c>
       <c r="J90">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>4013.95</v>
       </c>
       <c r="K90" s="2">
+        <f t="shared" si="18"/>
+        <v>25.244470162023553</v>
+      </c>
+      <c r="L90" s="2">
+        <f t="shared" si="19"/>
+        <v>21.057780757866674</v>
+      </c>
+      <c r="M90">
         <f t="shared" si="12"/>
-        <v>25.244470162023553</v>
-      </c>
-      <c r="L90" s="2">
-        <f t="shared" si="13"/>
-        <v>21.057780757866674</v>
-      </c>
-      <c r="M90">
-        <f>B90-C90-D90</f>
         <v>4218</v>
       </c>
       <c r="N90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>22.128257511100447</v>
       </c>
       <c r="O90">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>6015.666666666667</v>
       </c>
       <c r="P90">
@@ -12051,43 +12051,43 @@
         <v>93245</v>
       </c>
       <c r="F91">
+        <f t="shared" si="21"/>
+        <v>6435</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="14"/>
+        <v>5694.666666666667</v>
+      </c>
+      <c r="H91">
         <f t="shared" si="15"/>
-        <v>6435</v>
-      </c>
-      <c r="G91">
-        <f t="shared" si="8"/>
-        <v>5694.666666666667</v>
-      </c>
-      <c r="H91">
-        <f t="shared" si="9"/>
         <v>6231</v>
       </c>
       <c r="I91">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>5614.9</v>
       </c>
       <c r="J91">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>4271</v>
       </c>
       <c r="K91" s="2">
+        <f t="shared" si="18"/>
+        <v>33.758970385000325</v>
+      </c>
+      <c r="L91" s="2">
+        <f t="shared" si="19"/>
+        <v>22.406303421031296</v>
+      </c>
+      <c r="M91">
         <f t="shared" si="12"/>
-        <v>33.758970385000325</v>
-      </c>
-      <c r="L91" s="2">
-        <f t="shared" si="13"/>
-        <v>22.406303421031296</v>
-      </c>
-      <c r="M91">
-        <f>B91-C91-D91</f>
         <v>4366</v>
       </c>
       <c r="N91">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>22.904687599209236</v>
       </c>
       <c r="O91">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>5694.666666666667</v>
       </c>
       <c r="P91">
@@ -12111,43 +12111,43 @@
         <v>101418</v>
       </c>
       <c r="F92">
+        <f t="shared" si="21"/>
+        <v>8173</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="14"/>
+        <v>6473.333333333333</v>
+      </c>
+      <c r="H92">
         <f t="shared" si="15"/>
-        <v>8173</v>
-      </c>
-      <c r="G92">
-        <f t="shared" si="8"/>
-        <v>6473.333333333333</v>
-      </c>
-      <c r="H92">
-        <f t="shared" si="9"/>
         <v>6531</v>
       </c>
       <c r="I92">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>6009.8</v>
       </c>
       <c r="J92">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>4591.8500000000004</v>
       </c>
       <c r="K92" s="2">
+        <f t="shared" si="18"/>
+        <v>42.876777771034604</v>
+      </c>
+      <c r="L92" s="2">
+        <f t="shared" si="19"/>
+        <v>24.089530405961732</v>
+      </c>
+      <c r="M92">
         <f t="shared" si="12"/>
-        <v>42.876777771034604</v>
-      </c>
-      <c r="L92" s="2">
-        <f t="shared" si="13"/>
-        <v>24.089530405961732</v>
-      </c>
-      <c r="M92">
-        <f>B92-C92-D92</f>
         <v>4443</v>
       </c>
       <c r="N92">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>23.308641090995565</v>
       </c>
       <c r="O92">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>6473.333333333333</v>
       </c>
       <c r="P92">
@@ -12171,43 +12171,43 @@
         <v>109887</v>
       </c>
       <c r="F93">
+        <f t="shared" si="21"/>
+        <v>8469</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="14"/>
+        <v>7692.333333333333</v>
+      </c>
+      <c r="H93">
         <f t="shared" si="15"/>
-        <v>8469</v>
-      </c>
-      <c r="G93">
-        <f t="shared" si="8"/>
-        <v>7692.333333333333</v>
-      </c>
-      <c r="H93">
-        <f t="shared" si="9"/>
         <v>6745.2</v>
       </c>
       <c r="I93">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>6571.9</v>
       </c>
       <c r="J93">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>4902.3500000000004</v>
       </c>
       <c r="K93" s="2">
+        <f t="shared" si="18"/>
+        <v>44.429637947252175</v>
+      </c>
+      <c r="L93" s="2">
+        <f t="shared" si="19"/>
+        <v>25.718459746216997</v>
+      </c>
+      <c r="M93">
         <f t="shared" si="12"/>
-        <v>44.429637947252175</v>
-      </c>
-      <c r="L93" s="2">
-        <f t="shared" si="13"/>
-        <v>25.718459746216997</v>
-      </c>
-      <c r="M93">
-        <f>B93-C93-D93</f>
         <v>4631</v>
       </c>
       <c r="N93">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>24.294917148863483</v>
       </c>
       <c r="O93">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>7692.333333333333</v>
       </c>
       <c r="P93">
@@ -12231,43 +12231,43 @@
         <v>118067</v>
       </c>
       <c r="F94">
+        <f t="shared" si="21"/>
+        <v>8180</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="14"/>
+        <v>8274</v>
+      </c>
+      <c r="H94">
         <f t="shared" si="15"/>
-        <v>8180</v>
-      </c>
-      <c r="G94">
-        <f t="shared" si="8"/>
-        <v>8274</v>
-      </c>
-      <c r="H94">
-        <f t="shared" si="9"/>
         <v>7213.8</v>
       </c>
       <c r="I94">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>6874</v>
       </c>
       <c r="J94">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>5205.3</v>
       </c>
       <c r="K94" s="2">
+        <f t="shared" si="18"/>
+        <v>42.913500815742452</v>
+      </c>
+      <c r="L94" s="2">
+        <f t="shared" si="19"/>
+        <v>27.307780659680212</v>
+      </c>
+      <c r="M94">
         <f t="shared" si="12"/>
-        <v>42.913500815742452</v>
-      </c>
-      <c r="L94" s="2">
-        <f t="shared" si="13"/>
-        <v>27.307780659680212</v>
-      </c>
-      <c r="M94">
-        <f>B94-C94-D94</f>
         <v>4718</v>
       </c>
       <c r="N94">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>24.751332133089594</v>
       </c>
       <c r="O94">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>8274</v>
       </c>
       <c r="P94">
@@ -12291,43 +12291,43 @@
         <v>123769</v>
       </c>
       <c r="F95">
+        <f t="shared" si="21"/>
+        <v>5702</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="14"/>
+        <v>7450.333333333333</v>
+      </c>
+      <c r="H95">
         <f t="shared" si="15"/>
-        <v>5702</v>
-      </c>
-      <c r="G95">
-        <f t="shared" si="8"/>
-        <v>7450.333333333333</v>
-      </c>
-      <c r="H95">
-        <f t="shared" si="9"/>
         <v>7391.8</v>
       </c>
       <c r="I95">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>6778.1</v>
       </c>
       <c r="J95">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>5396.3</v>
       </c>
       <c r="K95" s="2">
+        <f t="shared" si="18"/>
+        <v>29.913542989164235</v>
+      </c>
+      <c r="L95" s="2">
+        <f t="shared" si="19"/>
+        <v>28.309795165280075</v>
+      </c>
+      <c r="M95">
         <f t="shared" si="12"/>
-        <v>29.913542989164235</v>
-      </c>
-      <c r="L95" s="2">
-        <f t="shared" si="13"/>
-        <v>28.309795165280075</v>
-      </c>
-      <c r="M95">
-        <f>B95-C95-D95</f>
         <v>4754</v>
       </c>
       <c r="N95">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>24.940193505872813</v>
       </c>
       <c r="O95">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>7450.333333333333</v>
       </c>
       <c r="P95">
@@ -12351,43 +12351,43 @@
         <v>128660</v>
       </c>
       <c r="F96">
+        <f t="shared" si="21"/>
+        <v>4891</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="14"/>
+        <v>6257.666666666667</v>
+      </c>
+      <c r="H96">
         <f t="shared" si="15"/>
-        <v>4891</v>
-      </c>
-      <c r="G96">
-        <f t="shared" si="8"/>
-        <v>6257.666666666667</v>
-      </c>
-      <c r="H96">
-        <f t="shared" si="9"/>
         <v>7083</v>
       </c>
       <c r="I96">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>6657</v>
       </c>
       <c r="J96">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>5550.8</v>
       </c>
       <c r="K96" s="2">
+        <f t="shared" si="18"/>
+        <v>25.658915952297839</v>
+      </c>
+      <c r="L96" s="2">
+        <f t="shared" si="19"/>
+        <v>29.120325223474719</v>
+      </c>
+      <c r="M96">
         <f t="shared" si="12"/>
-        <v>25.658915952297839</v>
-      </c>
-      <c r="L96" s="2">
-        <f t="shared" si="13"/>
-        <v>29.120325223474719</v>
-      </c>
-      <c r="M96">
-        <f>B96-C96-D96</f>
         <v>4796</v>
       </c>
       <c r="N96">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>25.160531774119899</v>
       </c>
       <c r="O96">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>6257.666666666667</v>
       </c>
       <c r="P96">
@@ -12411,43 +12411,43 @@
         <v>131910</v>
       </c>
       <c r="F97">
+        <f t="shared" si="21"/>
+        <v>3250</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="14"/>
+        <v>4614.333333333333</v>
+      </c>
+      <c r="H97">
         <f t="shared" si="15"/>
-        <v>3250</v>
-      </c>
-      <c r="G97">
-        <f t="shared" si="8"/>
-        <v>4614.333333333333</v>
-      </c>
-      <c r="H97">
-        <f t="shared" si="9"/>
         <v>6098.4</v>
       </c>
       <c r="I97">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>6314.7</v>
       </c>
       <c r="J97">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>5598.75</v>
       </c>
       <c r="K97" s="2">
+        <f t="shared" si="18"/>
+        <v>17.049985042929457</v>
+      </c>
+      <c r="L97" s="2">
+        <f t="shared" si="19"/>
+        <v>29.371878079723484</v>
+      </c>
+      <c r="M97">
         <f t="shared" si="12"/>
-        <v>17.049985042929457</v>
-      </c>
-      <c r="L97" s="2">
-        <f t="shared" si="13"/>
-        <v>29.371878079723484</v>
-      </c>
-      <c r="M97">
-        <f>B97-C97-D97</f>
         <v>4781</v>
       </c>
       <c r="N97">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>25.081839535460226</v>
       </c>
       <c r="O97">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>4614.333333333333</v>
       </c>
       <c r="P97">
@@ -12471,43 +12471,43 @@
         <v>135125</v>
       </c>
       <c r="F98">
+        <f t="shared" si="21"/>
+        <v>3215</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="14"/>
+        <v>3785.3333333333335</v>
+      </c>
+      <c r="H98">
         <f t="shared" si="15"/>
-        <v>3215</v>
-      </c>
-      <c r="G98">
-        <f t="shared" si="8"/>
-        <v>3785.3333333333335</v>
-      </c>
-      <c r="H98">
-        <f t="shared" si="9"/>
         <v>5047.6000000000004</v>
       </c>
       <c r="I98">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>5896.4</v>
       </c>
       <c r="J98">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>5606.4</v>
       </c>
       <c r="K98" s="2">
+        <f t="shared" si="18"/>
+        <v>16.866369819390219</v>
+      </c>
+      <c r="L98" s="2">
+        <f t="shared" si="19"/>
+        <v>29.412011121439917</v>
+      </c>
+      <c r="M98">
         <f t="shared" si="12"/>
-        <v>16.866369819390219</v>
-      </c>
-      <c r="L98" s="2">
-        <f t="shared" si="13"/>
-        <v>29.412011121439917</v>
-      </c>
-      <c r="M98">
-        <f>B98-C98-D98</f>
         <v>4744</v>
       </c>
       <c r="N98">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>24.88773201343303</v>
       </c>
       <c r="O98">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>3785.3333333333335</v>
       </c>
       <c r="P98">
@@ -12531,43 +12531,43 @@
         <v>141298</v>
       </c>
       <c r="F99">
+        <f t="shared" si="21"/>
+        <v>6173</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="14"/>
+        <v>4212.666666666667</v>
+      </c>
+      <c r="H99">
         <f t="shared" si="15"/>
-        <v>6173</v>
-      </c>
-      <c r="G99">
-        <f t="shared" si="8"/>
-        <v>4212.666666666667</v>
-      </c>
-      <c r="H99">
-        <f t="shared" si="9"/>
         <v>4646.2</v>
       </c>
       <c r="I99">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>5930</v>
       </c>
       <c r="J99">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>5709.7</v>
       </c>
       <c r="K99" s="2">
+        <f t="shared" si="18"/>
+        <v>32.384479283078015</v>
+      </c>
+      <c r="L99" s="2">
+        <f t="shared" si="19"/>
+        <v>29.953938338342869</v>
+      </c>
+      <c r="M99">
         <f t="shared" si="12"/>
-        <v>32.384479283078015</v>
-      </c>
-      <c r="L99" s="2">
-        <f t="shared" si="13"/>
-        <v>29.953938338342869</v>
-      </c>
-      <c r="M99">
-        <f>B99-C99-D99</f>
         <v>4641</v>
       </c>
       <c r="N99">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>24.347378641303266</v>
       </c>
       <c r="O99">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>4212.666666666667</v>
       </c>
       <c r="P99">
@@ -12591,43 +12591,43 @@
         <v>149774</v>
       </c>
       <c r="F100">
+        <f t="shared" si="21"/>
+        <v>8476</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="14"/>
+        <v>5954.666666666667</v>
+      </c>
+      <c r="H100">
         <f t="shared" si="15"/>
-        <v>8476</v>
-      </c>
-      <c r="G100">
-        <f t="shared" si="8"/>
-        <v>5954.666666666667</v>
-      </c>
-      <c r="H100">
-        <f t="shared" si="9"/>
         <v>5201</v>
       </c>
       <c r="I100">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>6296.4</v>
       </c>
       <c r="J100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>5901.85</v>
       </c>
       <c r="K100" s="2">
+        <f t="shared" si="18"/>
+        <v>44.466360991960023</v>
+      </c>
+      <c r="L100" s="2">
+        <f t="shared" si="19"/>
+        <v>30.961985915573301</v>
+      </c>
+      <c r="M100">
         <f t="shared" si="12"/>
-        <v>44.466360991960023</v>
-      </c>
-      <c r="L100" s="2">
-        <f t="shared" si="13"/>
-        <v>30.961985915573301</v>
-      </c>
-      <c r="M100">
-        <f>B100-C100-D100</f>
         <v>4622</v>
       </c>
       <c r="N100">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>24.247701805667678</v>
       </c>
       <c r="O100">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>5954.666666666667</v>
       </c>
       <c r="P100">
@@ -12651,43 +12651,43 @@
         <v>158155</v>
       </c>
       <c r="F101">
+        <f t="shared" si="21"/>
+        <v>8381</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="14"/>
+        <v>7676.666666666667</v>
+      </c>
+      <c r="H101">
         <f t="shared" si="15"/>
-        <v>8381</v>
-      </c>
-      <c r="G101">
-        <f t="shared" si="8"/>
-        <v>7676.666666666667</v>
-      </c>
-      <c r="H101">
-        <f t="shared" si="9"/>
         <v>5899</v>
       </c>
       <c r="I101">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>6491</v>
       </c>
       <c r="J101">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>6052.95</v>
       </c>
       <c r="K101" s="2">
+        <f t="shared" si="18"/>
+        <v>43.967976813782087</v>
+      </c>
+      <c r="L101" s="2">
+        <f t="shared" si="19"/>
+        <v>31.754679066338419</v>
+      </c>
+      <c r="M101">
         <f t="shared" si="12"/>
-        <v>43.967976813782087</v>
-      </c>
-      <c r="L101" s="2">
-        <f t="shared" si="13"/>
-        <v>31.754679066338419</v>
-      </c>
-      <c r="M101">
-        <f>B101-C101-D101</f>
         <v>4507</v>
       </c>
       <c r="N101">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>23.644394642610173</v>
       </c>
       <c r="O101">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>7676.666666666667</v>
       </c>
       <c r="P101">
@@ -12711,43 +12711,43 @@
         <v>166443</v>
       </c>
       <c r="F102">
+        <f t="shared" si="21"/>
+        <v>8288</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="14"/>
+        <v>8381.6666666666661</v>
+      </c>
+      <c r="H102">
         <f t="shared" si="15"/>
-        <v>8288</v>
-      </c>
-      <c r="G102">
-        <f t="shared" si="8"/>
-        <v>8381.6666666666661</v>
-      </c>
-      <c r="H102">
-        <f t="shared" si="9"/>
         <v>6906.6</v>
       </c>
       <c r="I102">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>6502.5</v>
       </c>
       <c r="J102">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>6256.15</v>
       </c>
       <c r="K102" s="2">
+        <f t="shared" si="18"/>
+        <v>43.480084934092105</v>
+      </c>
+      <c r="L102" s="2">
+        <f t="shared" si="19"/>
+        <v>32.82069659271481</v>
+      </c>
+      <c r="M102">
         <f t="shared" si="12"/>
-        <v>43.480084934092105</v>
-      </c>
-      <c r="L102" s="2">
-        <f t="shared" si="13"/>
-        <v>32.82069659271481</v>
-      </c>
-      <c r="M102">
-        <f>B102-C102-D102</f>
         <v>4339</v>
       </c>
       <c r="N102">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>22.763041569621819</v>
       </c>
       <c r="O102">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>8381.6666666666661</v>
       </c>
       <c r="P102">
@@ -12771,43 +12771,43 @@
         <v>172048</v>
       </c>
       <c r="F103">
+        <f t="shared" si="21"/>
+        <v>5605</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="14"/>
+        <v>7424.666666666667</v>
+      </c>
+      <c r="H103">
         <f t="shared" si="15"/>
-        <v>5605</v>
-      </c>
-      <c r="G103">
-        <f t="shared" si="8"/>
-        <v>7424.666666666667</v>
-      </c>
-      <c r="H103">
-        <f t="shared" si="9"/>
         <v>7384.6</v>
       </c>
       <c r="I103">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>6216.1</v>
       </c>
       <c r="J103">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>6394</v>
       </c>
       <c r="K103" s="2">
+        <f t="shared" si="18"/>
+        <v>29.404666512498341</v>
+      </c>
+      <c r="L103" s="2">
+        <f t="shared" si="19"/>
+        <v>33.543878265997215</v>
+      </c>
+      <c r="M103">
         <f t="shared" si="12"/>
-        <v>29.404666512498341</v>
-      </c>
-      <c r="L103" s="2">
-        <f t="shared" si="13"/>
-        <v>33.543878265997215</v>
-      </c>
-      <c r="M103">
-        <f>B103-C103-D103</f>
         <v>4308</v>
       </c>
       <c r="N103">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>22.600410943058492</v>
       </c>
       <c r="O103">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>7424.666666666667</v>
       </c>
       <c r="P103">
@@ -12831,43 +12831,43 @@
         <v>176075</v>
       </c>
       <c r="F104">
+        <f t="shared" si="21"/>
+        <v>4027</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="14"/>
+        <v>5973.333333333333</v>
+      </c>
+      <c r="H104">
         <f t="shared" si="15"/>
-        <v>4027</v>
-      </c>
-      <c r="G104">
-        <f t="shared" si="8"/>
-        <v>5973.333333333333</v>
-      </c>
-      <c r="H104">
-        <f t="shared" si="9"/>
         <v>6955.4</v>
       </c>
       <c r="I104">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>5800.8</v>
       </c>
       <c r="J104">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>6337.4</v>
       </c>
       <c r="K104" s="2">
+        <f t="shared" si="18"/>
+        <v>21.126243005500591</v>
+      </c>
+      <c r="L104" s="2">
+        <f t="shared" si="19"/>
+        <v>33.24694621878804</v>
+      </c>
+      <c r="M104">
         <f t="shared" si="12"/>
-        <v>21.126243005500591</v>
-      </c>
-      <c r="L104" s="2">
-        <f t="shared" si="13"/>
-        <v>33.24694621878804</v>
-      </c>
-      <c r="M104">
-        <f>B104-C104-D104</f>
         <v>4272</v>
       </c>
       <c r="N104">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>22.411549570275273</v>
       </c>
       <c r="O104">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>5973.333333333333</v>
       </c>
       <c r="P104">
@@ -12891,43 +12891,43 @@
         <v>182642</v>
       </c>
       <c r="F105">
+        <f t="shared" si="21"/>
+        <v>6567</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="14"/>
+        <v>5399.666666666667</v>
+      </c>
+      <c r="H105">
         <f t="shared" si="15"/>
-        <v>6567</v>
-      </c>
-      <c r="G105">
-        <f t="shared" si="8"/>
-        <v>5399.666666666667</v>
-      </c>
-      <c r="H105">
-        <f t="shared" si="9"/>
         <v>6573.6</v>
       </c>
       <c r="I105">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>5887.3</v>
       </c>
       <c r="J105">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>6332.7</v>
       </c>
       <c r="K105" s="2">
+        <f t="shared" si="18"/>
+        <v>34.451462085205463</v>
+      </c>
+      <c r="L105" s="2">
+        <f t="shared" si="19"/>
+        <v>33.222289317341342</v>
+      </c>
+      <c r="M105">
         <f t="shared" si="12"/>
-        <v>34.451462085205463</v>
-      </c>
-      <c r="L105" s="2">
-        <f t="shared" si="13"/>
-        <v>33.222289317341342</v>
-      </c>
-      <c r="M105">
-        <f>B105-C105-D105</f>
         <v>4218</v>
       </c>
       <c r="N105">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>22.128257511100447</v>
       </c>
       <c r="O105">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>5399.666666666667</v>
       </c>
       <c r="P105">
@@ -12951,43 +12951,43 @@
         <v>190983</v>
       </c>
       <c r="F106">
+        <f t="shared" si="21"/>
+        <v>8341</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="14"/>
+        <v>6311.666666666667</v>
+      </c>
+      <c r="H106">
         <f t="shared" si="15"/>
-        <v>8341</v>
-      </c>
-      <c r="G106">
-        <f t="shared" si="8"/>
-        <v>6311.666666666667</v>
-      </c>
-      <c r="H106">
-        <f t="shared" si="9"/>
         <v>6565.6</v>
       </c>
       <c r="I106">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>6232.3</v>
       </c>
       <c r="J106">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>6444.65</v>
       </c>
       <c r="K106" s="2">
+        <f t="shared" si="18"/>
+        <v>43.758130844022958</v>
+      </c>
+      <c r="L106" s="2">
+        <f t="shared" si="19"/>
+        <v>33.809595725204716</v>
+      </c>
+      <c r="M106">
         <f t="shared" si="12"/>
-        <v>43.758130844022958</v>
-      </c>
-      <c r="L106" s="2">
-        <f t="shared" si="13"/>
-        <v>33.809595725204716</v>
-      </c>
-      <c r="M106">
-        <f>B106-C106-D106</f>
         <v>4145</v>
       </c>
       <c r="N106">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>21.745288616290033</v>
       </c>
       <c r="O106">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>6311.666666666667</v>
       </c>
       <c r="P106">
@@ -13011,43 +13011,43 @@
         <v>199801</v>
       </c>
       <c r="F107">
+        <f t="shared" si="21"/>
+        <v>8818</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="14"/>
+        <v>7908.666666666667</v>
+      </c>
+      <c r="H107">
         <f t="shared" si="15"/>
-        <v>8818</v>
-      </c>
-      <c r="G107">
-        <f t="shared" si="8"/>
-        <v>7908.666666666667</v>
-      </c>
-      <c r="H107">
-        <f t="shared" si="9"/>
         <v>6671.6</v>
       </c>
       <c r="I107">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>6789.1</v>
       </c>
       <c r="J107">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>6551.9</v>
       </c>
       <c r="K107" s="2">
+        <f t="shared" si="18"/>
+        <v>46.260544033400599</v>
+      </c>
+      <c r="L107" s="2">
+        <f t="shared" si="19"/>
+        <v>34.372245231621385</v>
+      </c>
+      <c r="M107">
         <f t="shared" si="12"/>
-        <v>46.260544033400599</v>
-      </c>
-      <c r="L107" s="2">
-        <f t="shared" si="13"/>
-        <v>34.372245231621385</v>
-      </c>
-      <c r="M107">
-        <f>B107-C107-D107</f>
         <v>3976</v>
       </c>
       <c r="N107">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>20.858689394057699</v>
       </c>
       <c r="O107">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>7908.666666666667</v>
       </c>
       <c r="P107">
@@ -13071,43 +13071,43 @@
         <v>207702</v>
       </c>
       <c r="F108">
+        <f t="shared" si="21"/>
+        <v>7901</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="14"/>
+        <v>8353.3333333333339</v>
+      </c>
+      <c r="H108">
         <f t="shared" si="15"/>
-        <v>7901</v>
-      </c>
-      <c r="G108">
-        <f t="shared" si="8"/>
-        <v>8353.3333333333339</v>
-      </c>
-      <c r="H108">
-        <f t="shared" si="9"/>
         <v>7130.8</v>
       </c>
       <c r="I108">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>7257.7</v>
       </c>
       <c r="J108">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>6577.05</v>
       </c>
       <c r="K108" s="2">
+        <f t="shared" si="18"/>
+        <v>41.449825176672505</v>
+      </c>
+      <c r="L108" s="2">
+        <f t="shared" si="19"/>
+        <v>34.504185885107439</v>
+      </c>
+      <c r="M108">
         <f t="shared" si="12"/>
-        <v>41.449825176672505</v>
-      </c>
-      <c r="L108" s="2">
-        <f t="shared" si="13"/>
-        <v>34.504185885107439</v>
-      </c>
-      <c r="M108">
-        <f>B108-C108-D108</f>
         <v>3813</v>
       </c>
       <c r="N108">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>20.003567067289236</v>
       </c>
       <c r="O108">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>8353.3333333333339</v>
       </c>
       <c r="P108">
@@ -13131,43 +13131,43 @@
         <v>214831</v>
       </c>
       <c r="F109">
+        <f t="shared" si="21"/>
+        <v>7129</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="14"/>
+        <v>7949.333333333333</v>
+      </c>
+      <c r="H109">
         <f t="shared" si="15"/>
-        <v>7129</v>
-      </c>
-      <c r="G109">
-        <f t="shared" si="8"/>
-        <v>7949.333333333333</v>
-      </c>
-      <c r="H109">
-        <f t="shared" si="9"/>
         <v>7751.2</v>
       </c>
       <c r="I109">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>7353.3</v>
       </c>
       <c r="J109">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>6641.65</v>
       </c>
       <c r="K109" s="2">
+        <f t="shared" si="18"/>
+        <v>37.399797960321266</v>
+      </c>
+      <c r="L109" s="2">
+        <f t="shared" si="19"/>
+        <v>34.843087126268443</v>
+      </c>
+      <c r="M109">
         <f t="shared" si="12"/>
-        <v>37.399797960321266</v>
-      </c>
-      <c r="L109" s="2">
-        <f t="shared" si="13"/>
-        <v>34.843087126268443</v>
-      </c>
-      <c r="M109">
-        <f>B109-C109-D109</f>
         <v>3672</v>
       </c>
       <c r="N109">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>19.263860023888299</v>
       </c>
       <c r="O109">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>7949.333333333333</v>
       </c>
       <c r="P109">
@@ -13191,43 +13191,43 @@
         <v>219277</v>
       </c>
       <c r="F110">
+        <f t="shared" si="21"/>
+        <v>4446</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="14"/>
+        <v>6492</v>
+      </c>
+      <c r="H110">
         <f t="shared" si="15"/>
-        <v>4446</v>
-      </c>
-      <c r="G110">
-        <f t="shared" si="8"/>
-        <v>6492</v>
-      </c>
-      <c r="H110">
-        <f t="shared" si="9"/>
         <v>7327</v>
       </c>
       <c r="I110">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>6950.3</v>
       </c>
       <c r="J110">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>6623.35</v>
       </c>
       <c r="K110" s="2">
+        <f t="shared" si="18"/>
+        <v>23.324379538727499</v>
+      </c>
+      <c r="L110" s="2">
+        <f t="shared" si="19"/>
+        <v>34.747082595103635</v>
+      </c>
+      <c r="M110">
         <f t="shared" si="12"/>
-        <v>23.324379538727499</v>
-      </c>
-      <c r="L110" s="2">
-        <f t="shared" si="13"/>
-        <v>34.747082595103635</v>
-      </c>
-      <c r="M110">
-        <f>B110-C110-D110</f>
         <v>3627</v>
       </c>
       <c r="N110">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>19.027783307909274</v>
       </c>
       <c r="O110">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>6492</v>
       </c>
       <c r="P110">
@@ -13251,43 +13251,43 @@
         <v>222658</v>
       </c>
       <c r="F111">
+        <f t="shared" si="21"/>
+        <v>3381</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="14"/>
+        <v>4985.333333333333</v>
+      </c>
+      <c r="H111">
         <f t="shared" si="15"/>
-        <v>3381</v>
-      </c>
-      <c r="G111">
-        <f t="shared" si="8"/>
-        <v>4985.333333333333</v>
-      </c>
-      <c r="H111">
-        <f t="shared" si="9"/>
         <v>6335</v>
       </c>
       <c r="I111">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>6450.3</v>
       </c>
       <c r="J111">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>6470.65</v>
       </c>
       <c r="K111" s="2">
+        <f t="shared" si="18"/>
+        <v>17.737230593890615</v>
+      </c>
+      <c r="L111" s="2">
+        <f t="shared" si="19"/>
+        <v>33.945995605548163</v>
+      </c>
+      <c r="M111">
         <f t="shared" si="12"/>
-        <v>17.737230593890615</v>
-      </c>
-      <c r="L111" s="2">
-        <f t="shared" si="13"/>
-        <v>33.945995605548163</v>
-      </c>
-      <c r="M111">
-        <f>B111-C111-D111</f>
         <v>3603</v>
       </c>
       <c r="N111">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>18.901875726053795</v>
       </c>
       <c r="O111">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>4985.333333333333</v>
       </c>
       <c r="P111">
@@ -13311,43 +13311,43 @@
         <v>230412</v>
       </c>
       <c r="F112">
+        <f t="shared" si="21"/>
+        <v>7754</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="14"/>
+        <v>5193.666666666667</v>
+      </c>
+      <c r="H112">
         <f t="shared" si="15"/>
-        <v>7754</v>
-      </c>
-      <c r="G112">
-        <f t="shared" si="8"/>
-        <v>5193.666666666667</v>
-      </c>
-      <c r="H112">
-        <f t="shared" si="9"/>
         <v>6122.2</v>
       </c>
       <c r="I112">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>6396.9</v>
       </c>
       <c r="J112">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>6449.7</v>
       </c>
       <c r="K112" s="2">
+        <f t="shared" si="18"/>
+        <v>40.678641237807696</v>
+      </c>
+      <c r="L112" s="2">
+        <f t="shared" si="19"/>
+        <v>33.836088778886804</v>
+      </c>
+      <c r="M112">
         <f t="shared" si="12"/>
-        <v>40.678641237807696</v>
-      </c>
-      <c r="L112" s="2">
-        <f t="shared" si="13"/>
-        <v>33.836088778886804</v>
-      </c>
-      <c r="M112">
-        <f>B112-C112-D112</f>
         <v>3484</v>
       </c>
       <c r="N112">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>18.27758396602038</v>
       </c>
       <c r="O112">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>5193.666666666667</v>
       </c>
       <c r="P112">
@@ -13371,43 +13371,43 @@
         <v>239153</v>
       </c>
       <c r="F113">
+        <f t="shared" si="21"/>
+        <v>8741</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="14"/>
+        <v>6625.333333333333</v>
+      </c>
+      <c r="H113">
         <f t="shared" si="15"/>
-        <v>8741</v>
-      </c>
-      <c r="G113">
-        <f t="shared" si="8"/>
-        <v>6625.333333333333</v>
-      </c>
-      <c r="H113">
-        <f t="shared" si="9"/>
         <v>6290.2</v>
       </c>
       <c r="I113">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>6710.5</v>
       </c>
       <c r="J113">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>6463.3</v>
       </c>
       <c r="K113" s="2">
+        <f t="shared" si="18"/>
+        <v>45.856590541614274</v>
+      </c>
+      <c r="L113" s="2">
+        <f t="shared" si="19"/>
+        <v>33.907436408604916</v>
+      </c>
+      <c r="M113">
         <f t="shared" si="12"/>
-        <v>45.856590541614274</v>
-      </c>
-      <c r="L113" s="2">
-        <f t="shared" si="13"/>
-        <v>33.907436408604916</v>
-      </c>
-      <c r="M113">
-        <f>B113-C113-D113</f>
         <v>3416</v>
       </c>
       <c r="N113">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>17.920845817429853</v>
       </c>
       <c r="O113">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>6625.333333333333</v>
       </c>
       <c r="P113">
@@ -13431,43 +13431,43 @@
         <v>246475</v>
       </c>
       <c r="F114">
+        <f t="shared" si="21"/>
+        <v>7322</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="14"/>
+        <v>7939</v>
+      </c>
+      <c r="H114">
         <f t="shared" si="15"/>
-        <v>7322</v>
-      </c>
-      <c r="G114">
-        <f t="shared" si="8"/>
-        <v>7939</v>
-      </c>
-      <c r="H114">
-        <f t="shared" si="9"/>
         <v>6328.8</v>
       </c>
       <c r="I114">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>7040</v>
       </c>
       <c r="J114">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>6420.4</v>
       </c>
       <c r="K114" s="2">
+        <f t="shared" si="18"/>
+        <v>38.412304764409072</v>
+      </c>
+      <c r="L114" s="2">
+        <f t="shared" si="19"/>
+        <v>33.682376606038247</v>
+      </c>
+      <c r="M114">
         <f t="shared" si="12"/>
-        <v>38.412304764409072</v>
-      </c>
-      <c r="L114" s="2">
-        <f t="shared" si="13"/>
-        <v>33.682376606038247</v>
-      </c>
-      <c r="M114">
-        <f>B114-C114-D114</f>
         <v>3334</v>
       </c>
       <c r="N114">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>17.490661579423634</v>
       </c>
       <c r="O114">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>7939</v>
       </c>
       <c r="P114">
@@ -13491,43 +13491,43 @@
         <v>253871</v>
       </c>
       <c r="F115">
+        <f t="shared" si="21"/>
+        <v>7396</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="14"/>
+        <v>7819.666666666667</v>
+      </c>
+      <c r="H115">
         <f t="shared" si="15"/>
-        <v>7396</v>
-      </c>
-      <c r="G115">
-        <f t="shared" si="8"/>
-        <v>7819.666666666667</v>
-      </c>
-      <c r="H115">
-        <f t="shared" si="9"/>
         <v>6918.8</v>
       </c>
       <c r="I115">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>7122.9</v>
       </c>
       <c r="J115">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>6505.1</v>
       </c>
       <c r="K115" s="2">
+        <f t="shared" si="18"/>
+        <v>38.80051980846347</v>
+      </c>
+      <c r="L115" s="2">
+        <f t="shared" si="19"/>
+        <v>34.12672544700321</v>
+      </c>
+      <c r="M115">
         <f t="shared" si="12"/>
-        <v>38.80051980846347</v>
-      </c>
-      <c r="L115" s="2">
-        <f t="shared" si="13"/>
-        <v>34.12672544700321</v>
-      </c>
-      <c r="M115">
-        <f>B115-C115-D115</f>
         <v>3273</v>
       </c>
       <c r="N115">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>17.170646475540959</v>
       </c>
       <c r="O115">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>7819.666666666667</v>
       </c>
       <c r="P115">
@@ -13551,43 +13551,43 @@
         <v>258284</v>
       </c>
       <c r="F116">
+        <f t="shared" si="21"/>
+        <v>4413</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="14"/>
+        <v>6377</v>
+      </c>
+      <c r="H116">
         <f t="shared" si="15"/>
-        <v>4413</v>
-      </c>
-      <c r="G116">
-        <f t="shared" si="8"/>
-        <v>6377</v>
-      </c>
-      <c r="H116">
-        <f t="shared" si="9"/>
         <v>7125.2</v>
       </c>
       <c r="I116">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>6730.1</v>
       </c>
       <c r="J116">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>6481.2</v>
       </c>
       <c r="K116" s="2">
+        <f t="shared" si="18"/>
+        <v>23.151256613676214</v>
+      </c>
+      <c r="L116" s="2">
+        <f t="shared" si="19"/>
+        <v>34.001342480072125</v>
+      </c>
+      <c r="M116">
         <f t="shared" si="12"/>
-        <v>23.151256613676214</v>
-      </c>
-      <c r="L116" s="2">
-        <f t="shared" si="13"/>
-        <v>34.001342480072125</v>
-      </c>
-      <c r="M116">
-        <f>B116-C116-D116</f>
         <v>3226</v>
       </c>
       <c r="N116">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>16.924077461073978</v>
       </c>
       <c r="O116">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>6377</v>
       </c>
       <c r="P116">
@@ -13611,43 +13611,43 @@
         <v>262164</v>
       </c>
       <c r="F117">
+        <f t="shared" si="21"/>
+        <v>3880</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="14"/>
+        <v>5229.666666666667</v>
+      </c>
+      <c r="H117">
         <f t="shared" si="15"/>
-        <v>3880</v>
-      </c>
-      <c r="G117">
-        <f t="shared" si="8"/>
-        <v>5229.666666666667</v>
-      </c>
-      <c r="H117">
-        <f t="shared" si="9"/>
         <v>6350.4</v>
       </c>
       <c r="I117">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>6236.3</v>
       </c>
       <c r="J117">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>6512.7</v>
       </c>
       <c r="K117" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>20.355059066635782</v>
       </c>
       <c r="L117" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>34.166596181257447</v>
       </c>
       <c r="M117">
-        <f t="shared" ref="M117:M130" si="17">B117-C117-D117</f>
+        <f t="shared" ref="M117:M130" si="23">B117-C117-D117</f>
         <v>3153</v>
       </c>
       <c r="N117">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>16.541108566263564</v>
       </c>
       <c r="O117">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>5229.666666666667</v>
       </c>
       <c r="P117">
@@ -13671,43 +13671,43 @@
         <v>266045</v>
       </c>
       <c r="F118">
+        <f t="shared" si="21"/>
+        <v>3881</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="14"/>
+        <v>4058</v>
+      </c>
+      <c r="H118">
         <f t="shared" si="15"/>
-        <v>3881</v>
-      </c>
-      <c r="G118">
-        <f t="shared" si="8"/>
-        <v>4058</v>
-      </c>
-      <c r="H118">
-        <f t="shared" si="9"/>
         <v>5378.4</v>
       </c>
       <c r="I118">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>5834.3</v>
       </c>
       <c r="J118">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>6546</v>
       </c>
       <c r="K118" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>20.360305215879762</v>
       </c>
       <c r="L118" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>34.341292951081918</v>
       </c>
       <c r="M118">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>3125</v>
       </c>
       <c r="N118">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>16.39421638743217</v>
       </c>
       <c r="O118">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>4058</v>
       </c>
       <c r="P118">
@@ -13731,43 +13731,43 @@
         <v>273672</v>
       </c>
       <c r="F119">
+        <f t="shared" si="21"/>
+        <v>7627</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="14"/>
+        <v>5129.333333333333</v>
+      </c>
+      <c r="H119">
         <f t="shared" si="15"/>
-        <v>7627</v>
-      </c>
-      <c r="G119">
-        <f t="shared" si="8"/>
-        <v>5129.333333333333</v>
-      </c>
-      <c r="H119">
-        <f t="shared" si="9"/>
         <v>5439.4</v>
       </c>
       <c r="I119">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>5884.1</v>
       </c>
       <c r="J119">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>6618.7</v>
       </c>
       <c r="K119" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>40.012380283822452</v>
       </c>
       <c r="L119" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>34.722688001119145</v>
       </c>
       <c r="M119">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>3033</v>
       </c>
       <c r="N119">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>15.911570656986168</v>
       </c>
       <c r="O119">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>5129.333333333333</v>
       </c>
       <c r="P119">
@@ -13791,43 +13791,43 @@
         <v>283119</v>
       </c>
       <c r="F120">
+        <f t="shared" si="21"/>
+        <v>9447</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="14"/>
+        <v>6985</v>
+      </c>
+      <c r="H120">
         <f t="shared" si="15"/>
-        <v>9447</v>
-      </c>
-      <c r="G120">
-        <f t="shared" si="8"/>
-        <v>6985</v>
-      </c>
-      <c r="H120">
-        <f t="shared" si="9"/>
         <v>5849.6</v>
       </c>
       <c r="I120">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>6384.2</v>
       </c>
       <c r="J120">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>6667.25</v>
       </c>
       <c r="K120" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>49.560371907862951</v>
       </c>
       <c r="L120" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>34.977388546914291</v>
       </c>
       <c r="M120">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>2971</v>
       </c>
       <c r="N120">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>15.586309403859513</v>
       </c>
       <c r="O120">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>6985</v>
       </c>
       <c r="P120">
@@ -13851,43 +13851,43 @@
         <v>291202</v>
       </c>
       <c r="F121">
+        <f t="shared" si="21"/>
+        <v>8083</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="14"/>
+        <v>8385.6666666666661</v>
+      </c>
+      <c r="H121">
         <f t="shared" si="15"/>
-        <v>8083</v>
-      </c>
-      <c r="G121">
-        <f t="shared" si="8"/>
-        <v>8385.6666666666661</v>
-      </c>
-      <c r="H121">
-        <f t="shared" si="9"/>
         <v>6583.6</v>
       </c>
       <c r="I121">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>6854.4</v>
       </c>
       <c r="J121">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>6652.35</v>
       </c>
       <c r="K121" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>42.404624339076555</v>
       </c>
       <c r="L121" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>34.899220923179016</v>
       </c>
       <c r="M121">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>2903</v>
       </c>
       <c r="N121">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>15.22957125526899</v>
       </c>
       <c r="O121">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>8385.6666666666661</v>
       </c>
       <c r="P121">
@@ -13911,43 +13911,43 @@
         <v>298784</v>
       </c>
       <c r="F122">
+        <f t="shared" si="21"/>
+        <v>7582</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="14"/>
+        <v>8370.6666666666661</v>
+      </c>
+      <c r="H122">
         <f t="shared" si="15"/>
-        <v>7582</v>
-      </c>
-      <c r="G122">
-        <f t="shared" si="8"/>
-        <v>8370.6666666666661</v>
-      </c>
-      <c r="H122">
-        <f t="shared" si="9"/>
         <v>7324</v>
       </c>
       <c r="I122">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>6837.2</v>
       </c>
       <c r="J122">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>6617.05</v>
       </c>
       <c r="K122" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>39.776303567843428</v>
       </c>
       <c r="L122" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>34.714031854866583</v>
       </c>
       <c r="M122">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>2832</v>
       </c>
       <c r="N122">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>14.857094658946531</v>
       </c>
       <c r="O122">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>8370.6666666666661</v>
       </c>
       <c r="P122">
@@ -13971,43 +13971,43 @@
         <v>303341</v>
       </c>
       <c r="F123">
+        <f t="shared" si="21"/>
+        <v>4557</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="14"/>
+        <v>6740.666666666667</v>
+      </c>
+      <c r="H123">
         <f t="shared" si="15"/>
-        <v>4557</v>
-      </c>
-      <c r="G123">
-        <f t="shared" si="8"/>
-        <v>6740.666666666667</v>
-      </c>
-      <c r="H123">
-        <f t="shared" si="9"/>
         <v>7459.2</v>
       </c>
       <c r="I123">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>6418.8</v>
       </c>
       <c r="J123">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>6564.65</v>
       </c>
       <c r="K123" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>23.906702104809089</v>
       </c>
       <c r="L123" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>34.439133634482118</v>
       </c>
       <c r="M123">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>2825</v>
       </c>
       <c r="N123">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>14.820371614238683</v>
       </c>
       <c r="O123">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>6740.666666666667</v>
       </c>
       <c r="P123">
@@ -14031,43 +14031,43 @@
         <v>307123</v>
       </c>
       <c r="F124">
+        <f t="shared" si="21"/>
+        <v>3782</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="14"/>
+        <v>5307</v>
+      </c>
+      <c r="H124">
         <f t="shared" si="15"/>
-        <v>3782</v>
-      </c>
-      <c r="G124">
-        <f t="shared" si="8"/>
-        <v>5307</v>
-      </c>
-      <c r="H124">
-        <f t="shared" si="9"/>
         <v>6690.2</v>
       </c>
       <c r="I124">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>6064.8</v>
       </c>
       <c r="J124">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>6552.4</v>
       </c>
       <c r="K124" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>19.840936440725912</v>
       </c>
       <c r="L124" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>34.374868306243386</v>
       </c>
       <c r="M124">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>2777</v>
       </c>
       <c r="N124">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>14.568556450527725</v>
       </c>
       <c r="O124">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>5307</v>
       </c>
       <c r="P124">
@@ -14091,43 +14091,43 @@
         <v>311174</v>
       </c>
       <c r="F125">
+        <f t="shared" si="21"/>
+        <v>4051</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="14"/>
+        <v>4130</v>
+      </c>
+      <c r="H125">
         <f t="shared" si="15"/>
-        <v>4051</v>
-      </c>
-      <c r="G125">
-        <f t="shared" si="8"/>
-        <v>4130</v>
-      </c>
-      <c r="H125">
-        <f t="shared" si="9"/>
         <v>5611</v>
       </c>
       <c r="I125">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>5730.3</v>
       </c>
       <c r="J125">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>6426.6</v>
       </c>
       <c r="K125" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>21.25215058735607</v>
       </c>
       <c r="L125" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>33.714902731350911</v>
       </c>
       <c r="M125">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>2767</v>
       </c>
       <c r="N125">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>14.51609495808794</v>
       </c>
       <c r="O125">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>4130</v>
       </c>
       <c r="P125">
@@ -14151,43 +14151,43 @@
         <v>318979</v>
       </c>
       <c r="F126">
+        <f t="shared" si="21"/>
+        <v>7805</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="14"/>
+        <v>5212.666666666667</v>
+      </c>
+      <c r="H126">
         <f t="shared" si="15"/>
-        <v>7805</v>
-      </c>
-      <c r="G126">
-        <f t="shared" si="8"/>
-        <v>5212.666666666667</v>
-      </c>
-      <c r="H126">
-        <f t="shared" si="9"/>
         <v>5555.4</v>
       </c>
       <c r="I126">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>6069.5</v>
       </c>
       <c r="J126">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>6399.8</v>
       </c>
       <c r="K126" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>40.946194849250588</v>
       </c>
       <c r="L126" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>33.574305931612294</v>
       </c>
       <c r="M126">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>2709</v>
       </c>
       <c r="N126">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>14.2118183019372</v>
       </c>
       <c r="O126">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>5212.666666666667</v>
       </c>
       <c r="P126">
@@ -14211,43 +14211,43 @@
         <v>327688</v>
       </c>
       <c r="F127">
+        <f t="shared" si="21"/>
+        <v>8709</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="14"/>
+        <v>6855</v>
+      </c>
+      <c r="H127">
         <f t="shared" si="15"/>
-        <v>8709</v>
-      </c>
-      <c r="G127">
-        <f t="shared" si="8"/>
-        <v>6855</v>
-      </c>
-      <c r="H127">
-        <f t="shared" si="9"/>
         <v>5780.8</v>
       </c>
       <c r="I127">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>6552.4</v>
       </c>
       <c r="J127">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>6394.35</v>
       </c>
       <c r="K127" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>45.688713765806966</v>
       </c>
       <c r="L127" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>33.545714418232606</v>
       </c>
       <c r="M127">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>2679</v>
       </c>
       <c r="N127">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>14.054433824617851</v>
       </c>
       <c r="O127">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>6855</v>
       </c>
       <c r="P127">
@@ -14271,43 +14271,43 @@
         <v>335368</v>
       </c>
       <c r="F128">
+        <f t="shared" si="21"/>
+        <v>7680</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="14"/>
+        <v>8064.666666666667</v>
+      </c>
+      <c r="H128">
         <f t="shared" si="15"/>
-        <v>7680</v>
-      </c>
-      <c r="G128">
-        <f t="shared" si="8"/>
-        <v>8064.666666666667</v>
-      </c>
-      <c r="H128">
-        <f t="shared" si="9"/>
         <v>6405.4</v>
       </c>
       <c r="I128">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>6932.3</v>
       </c>
       <c r="J128">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>6383.3</v>
       </c>
       <c r="K128" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>40.290426193753305</v>
       </c>
       <c r="L128" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>33.487744469086643</v>
       </c>
       <c r="M128">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>2641</v>
       </c>
       <c r="N128">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>13.855080153346677</v>
       </c>
       <c r="O128">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>8064.666666666667</v>
       </c>
       <c r="P128">
@@ -14331,43 +14331,43 @@
         <v>342248</v>
       </c>
       <c r="F129">
+        <f t="shared" si="21"/>
+        <v>6880</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="14"/>
+        <v>7756.333333333333</v>
+      </c>
+      <c r="H129">
         <f t="shared" si="15"/>
-        <v>6880</v>
-      </c>
-      <c r="G129">
-        <f t="shared" si="8"/>
-        <v>7756.333333333333</v>
-      </c>
-      <c r="H129">
-        <f t="shared" si="9"/>
         <v>7025</v>
       </c>
       <c r="I129">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>6857.6</v>
       </c>
       <c r="J129">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>6370.85</v>
       </c>
       <c r="K129" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>36.093506798570665</v>
       </c>
       <c r="L129" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>33.422429910999114</v>
       </c>
       <c r="M129">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>2679</v>
       </c>
       <c r="N129">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>14.054433824617851</v>
       </c>
       <c r="O129">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>7756.333333333333</v>
       </c>
       <c r="P129">
@@ -14391,43 +14391,43 @@
         <v>348849</v>
       </c>
       <c r="F130">
+        <f t="shared" si="21"/>
+        <v>6601</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="14"/>
+        <v>7053.666666666667</v>
+      </c>
+      <c r="H130">
         <f t="shared" si="15"/>
-        <v>6601</v>
-      </c>
-      <c r="G130">
-        <f t="shared" si="8"/>
-        <v>7053.666666666667</v>
-      </c>
-      <c r="H130">
-        <f t="shared" si="9"/>
         <v>7535</v>
       </c>
       <c r="I130">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>6573</v>
       </c>
       <c r="J130">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>6478.6</v>
       </c>
       <c r="K130" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>34.629831159500725</v>
       </c>
       <c r="L130" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>33.987702492037769</v>
       </c>
       <c r="M130">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>2732</v>
       </c>
       <c r="N130">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>14.3324797345487</v>
       </c>
       <c r="O130">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>7053.666666666667</v>
       </c>
       <c r="P130">
